--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEF3239-F5BB-B84D-80E0-6D229C85C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C80B0-A763-5742-86DE-85FCF6323F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -3531,7 +3531,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3559,12 +3559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3779,7 +3773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3918,13 +3912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3935,19 +3922,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4293,11 +4286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4394,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="21"/>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="52" t="s">
         <v>1050</v>
       </c>
       <c r="AA1" s="21" t="s">
@@ -4485,7 +4477,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4541,7 +4533,7 @@
       <c r="U2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="65" t="s">
         <v>41</v>
       </c>
       <c r="W2" s="19" t="s">
@@ -4551,7 +4543,7 @@
         <v>43</v>
       </c>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA2" s="19" t="s">
@@ -4623,7 +4615,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
     </row>
-    <row r="3" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4683,7 +4675,7 @@
       <c r="U3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="66" t="s">
         <v>58</v>
       </c>
       <c r="W3" s="12" t="s">
@@ -4693,7 +4685,7 @@
         <v>43</v>
       </c>
       <c r="Y3" s="12"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA3" s="12" t="s">
@@ -4767,7 +4759,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4827,7 +4819,7 @@
       <c r="U4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W4" s="14" t="s">
@@ -4837,7 +4829,7 @@
         <v>43</v>
       </c>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="56" t="s">
+      <c r="Z4" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA4" s="14" t="s">
@@ -4911,7 +4903,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4965,7 +4957,7 @@
       <c r="U5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W5" s="14" t="s">
@@ -4975,7 +4967,7 @@
         <v>43</v>
       </c>
       <c r="Y5" s="14"/>
-      <c r="Z5" s="56" t="s">
+      <c r="Z5" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA5" s="14" t="s">
@@ -5053,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5107,7 +5099,7 @@
       <c r="U6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W6" s="14" t="s">
@@ -5117,7 +5109,7 @@
         <v>43</v>
       </c>
       <c r="Y6" s="14"/>
-      <c r="Z6" s="56" t="s">
+      <c r="Z6" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA6" s="14" t="s">
@@ -5187,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5243,7 +5235,7 @@
       <c r="U7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W7" s="14" t="s">
@@ -5253,7 +5245,7 @@
         <v>43</v>
       </c>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="56" t="s">
+      <c r="Z7" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA7" s="14" t="s">
@@ -5325,7 +5317,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5381,7 +5373,7 @@
       <c r="U8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W8" s="14" t="s">
@@ -5391,7 +5383,7 @@
         <v>43</v>
       </c>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="56" t="s">
+      <c r="Z8" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA8" s="14" t="s">
@@ -5463,7 +5455,7 @@
       <c r="BA8"/>
       <c r="BB8"/>
     </row>
-    <row r="9" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -5519,7 +5511,7 @@
       <c r="U9" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W9" s="14" t="s">
@@ -5529,7 +5521,7 @@
         <v>43</v>
       </c>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="56" t="s">
+      <c r="Z9" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA9" s="14" t="s">
@@ -5601,7 +5593,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5657,7 +5649,7 @@
       <c r="U10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W10" s="14" t="s">
@@ -5667,7 +5659,7 @@
         <v>43</v>
       </c>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="56" t="s">
+      <c r="Z10" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA10" s="14" t="s">
@@ -5739,7 +5731,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5795,7 +5787,7 @@
       <c r="U11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W11" s="14" t="s">
@@ -5805,7 +5797,7 @@
         <v>43</v>
       </c>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="56" t="s">
+      <c r="Z11" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA11" s="14" t="s">
@@ -5861,7 +5853,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5879,7 +5871,7 @@
         <v>152</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="14" t="s">
         <v>153</v>
       </c>
@@ -5919,7 +5911,7 @@
       <c r="U12" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W12" s="14" t="s">
@@ -5929,7 +5921,7 @@
         <v>43</v>
       </c>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="56" t="s">
+      <c r="Z12" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA12" s="14" t="s">
@@ -6001,7 +5993,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6057,7 +6049,7 @@
       <c r="U13" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W13" s="14" t="s">
@@ -6067,7 +6059,7 @@
         <v>43</v>
       </c>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="56" t="s">
+      <c r="Z13" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA13" s="14" t="s">
@@ -6141,7 +6133,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6197,7 +6189,7 @@
       <c r="U14" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W14" s="14" t="s">
@@ -6207,7 +6199,7 @@
         <v>43</v>
       </c>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="56" t="s">
+      <c r="Z14" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA14" s="14" t="s">
@@ -6281,7 +6273,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6339,7 +6331,7 @@
       <c r="U15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="14" t="s">
@@ -6349,7 +6341,7 @@
         <v>43</v>
       </c>
       <c r="Y15" s="14"/>
-      <c r="Z15" s="56" t="s">
+      <c r="Z15" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA15" s="14" t="s">
@@ -6421,7 +6413,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6479,7 +6471,7 @@
       <c r="U16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W16" s="14" t="s">
@@ -6489,7 +6481,7 @@
         <v>43</v>
       </c>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="56" t="s">
+      <c r="Z16" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA16" s="14" t="s">
@@ -6561,7 +6553,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6619,7 +6611,7 @@
       <c r="U17" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W17" s="14" t="s">
@@ -6629,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="Y17" s="14"/>
-      <c r="Z17" s="56" t="s">
+      <c r="Z17" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA17" s="14" t="s">
@@ -6701,7 +6693,7 @@
       <c r="BA17"/>
       <c r="BB17"/>
     </row>
-    <row r="18" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6759,7 +6751,7 @@
       <c r="U18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W18" s="14" t="s">
@@ -6769,7 +6761,7 @@
         <v>43</v>
       </c>
       <c r="Y18" s="14"/>
-      <c r="Z18" s="56" t="s">
+      <c r="Z18" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA18" s="14" t="s">
@@ -6847,7 +6839,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6903,7 +6895,7 @@
       <c r="U19" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="60" t="s">
         <v>197</v>
       </c>
       <c r="W19" s="14" t="s">
@@ -6913,7 +6905,7 @@
         <v>43</v>
       </c>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="56" t="s">
+      <c r="Z19" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA19" s="14" t="s">
@@ -6987,7 +6979,7 @@
       </c>
       <c r="BB19"/>
     </row>
-    <row r="20" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -7043,7 +7035,7 @@
       <c r="U20" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W20" s="14" t="s">
@@ -7053,7 +7045,7 @@
         <v>43</v>
       </c>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="52"/>
+      <c r="Z20" s="53"/>
       <c r="AA20" s="14" t="s">
         <v>44</v>
       </c>
@@ -7127,7 +7119,7 @@
       <c r="BA20"/>
       <c r="BB20"/>
     </row>
-    <row r="21" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -7183,7 +7175,7 @@
       <c r="U21" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W21" s="14" t="s">
@@ -7193,7 +7185,7 @@
         <v>43</v>
       </c>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="56" t="s">
+      <c r="Z21" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA21" s="14" t="s">
@@ -7273,7 +7265,7 @@
       <c r="BA21"/>
       <c r="BB21"/>
     </row>
-    <row r="22" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -7331,7 +7323,7 @@
       <c r="U22" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="14" t="s">
@@ -7341,7 +7333,7 @@
         <v>43</v>
       </c>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="52" t="s">
+      <c r="Z22" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA22" s="14" t="s">
@@ -7417,7 +7409,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -7473,7 +7465,7 @@
       <c r="U23" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W23" s="14" t="s">
@@ -7483,7 +7475,7 @@
         <v>43</v>
       </c>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="56" t="s">
+      <c r="Z23" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA23" s="14" t="s">
@@ -7555,7 +7547,7 @@
       <c r="BA23"/>
       <c r="BB23"/>
     </row>
-    <row r="24" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -7611,7 +7603,7 @@
       <c r="U24" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W24" s="14" t="s">
@@ -7621,7 +7613,7 @@
         <v>43</v>
       </c>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="52" t="s">
+      <c r="Z24" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA24" s="14" t="s">
@@ -7683,7 +7675,7 @@
       <c r="BA24"/>
       <c r="BB24"/>
     </row>
-    <row r="25" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7726,7 +7718,7 @@
       <c r="P25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q25" s="63" t="s">
+      <c r="Q25" s="60" t="s">
         <v>55</v>
       </c>
       <c r="R25" s="14" t="s">
@@ -7741,7 +7733,7 @@
       <c r="U25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W25" s="14" t="s">
@@ -7751,7 +7743,7 @@
         <v>43</v>
       </c>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="56" t="s">
+      <c r="Z25" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA25" s="14" t="s">
@@ -7769,7 +7761,7 @@
       <c r="AE25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AF25" s="59" t="s">
+      <c r="AF25" s="56" t="s">
         <v>1040</v>
       </c>
       <c r="AG25" s="14" t="s">
@@ -7827,7 +7819,7 @@
       </c>
       <c r="BB25"/>
     </row>
-    <row r="26" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7887,7 +7879,7 @@
       <c r="U26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W26" s="14" t="s">
@@ -7897,7 +7889,7 @@
         <v>43</v>
       </c>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="52" t="s">
+      <c r="Z26" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA26" s="14" t="s">
@@ -7973,7 +7965,7 @@
       </c>
       <c r="BB26"/>
     </row>
-    <row r="27" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -8031,7 +8023,7 @@
       <c r="U27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W27" s="14" t="s">
@@ -8041,7 +8033,7 @@
         <v>43</v>
       </c>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="52" t="s">
+      <c r="Z27" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA27" s="14" t="s">
@@ -8117,7 +8109,7 @@
       </c>
       <c r="BB27"/>
     </row>
-    <row r="28" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -8175,7 +8167,7 @@
       <c r="U28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W28" s="14" t="s">
@@ -8185,7 +8177,7 @@
         <v>43</v>
       </c>
       <c r="Y28" s="14"/>
-      <c r="Z28" s="52" t="s">
+      <c r="Z28" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA28" s="14" t="s">
@@ -8261,7 +8253,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8319,7 +8311,7 @@
       <c r="U29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="66" t="s">
         <v>41</v>
       </c>
       <c r="W29" s="12" t="s">
@@ -8329,7 +8321,7 @@
         <v>43</v>
       </c>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="56" t="s">
+      <c r="Z29" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA29" s="12" t="s">
@@ -8402,7 +8394,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -8458,7 +8450,7 @@
       <c r="U30" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W30" s="14" t="s">
@@ -8468,7 +8460,7 @@
         <v>43</v>
       </c>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="56" t="s">
+      <c r="Z30" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA30" s="14" t="s">
@@ -8541,7 +8533,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -8597,7 +8589,7 @@
       <c r="U31" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W31" s="14" t="s">
@@ -8607,7 +8599,7 @@
         <v>43</v>
       </c>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="56" t="s">
+      <c r="Z31" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA31" s="14" t="s">
@@ -8684,7 +8676,7 @@
       </c>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>4</v>
       </c>
@@ -8740,7 +8732,7 @@
       <c r="U32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W32" s="14" t="s">
@@ -8750,7 +8742,7 @@
         <v>43</v>
       </c>
       <c r="Y32" s="14"/>
-      <c r="Z32" s="56" t="s">
+      <c r="Z32" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA32" s="14" t="s">
@@ -8823,7 +8815,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>5</v>
       </c>
@@ -8877,7 +8869,7 @@
       <c r="U33" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W33" s="14" t="s">
@@ -8887,7 +8879,7 @@
         <v>43</v>
       </c>
       <c r="Y33" s="14"/>
-      <c r="Z33" s="56" t="s">
+      <c r="Z33" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA33" s="14" t="s">
@@ -8960,7 +8952,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -9016,7 +9008,7 @@
       <c r="U34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W34" s="14" t="s">
@@ -9026,7 +9018,7 @@
         <v>43</v>
       </c>
       <c r="Y34" s="14"/>
-      <c r="Z34" s="56" t="s">
+      <c r="Z34" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA34" s="14" t="s">
@@ -9099,7 +9091,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>7</v>
       </c>
@@ -9155,7 +9147,7 @@
       <c r="U35" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W35" s="14" t="s">
@@ -9165,7 +9157,7 @@
         <v>43</v>
       </c>
       <c r="Y35" s="14"/>
-      <c r="Z35" s="56" t="s">
+      <c r="Z35" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA35" s="14" t="s">
@@ -9238,7 +9230,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>8</v>
       </c>
@@ -9294,7 +9286,7 @@
       <c r="U36" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W36" s="14" t="s">
@@ -9304,7 +9296,7 @@
         <v>43</v>
       </c>
       <c r="Y36" s="14"/>
-      <c r="Z36" s="56" t="s">
+      <c r="Z36" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA36" s="14" t="s">
@@ -9377,7 +9369,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -9433,7 +9425,7 @@
       <c r="U37" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W37" s="14" t="s">
@@ -9443,7 +9435,7 @@
         <v>43</v>
       </c>
       <c r="Y37" s="14"/>
-      <c r="Z37" s="56" t="s">
+      <c r="Z37" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA37" s="14" t="s">
@@ -9516,7 +9508,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>10</v>
       </c>
@@ -9572,7 +9564,7 @@
       <c r="U38" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W38" s="14" t="s">
@@ -9582,7 +9574,7 @@
         <v>43</v>
       </c>
       <c r="Y38" s="14"/>
-      <c r="Z38" s="56" t="s">
+      <c r="Z38" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA38" s="14" t="s">
@@ -9655,7 +9647,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>11</v>
       </c>
@@ -9711,7 +9703,7 @@
       <c r="U39" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W39" s="14" t="s">
@@ -9721,7 +9713,7 @@
         <v>43</v>
       </c>
       <c r="Y39" s="14"/>
-      <c r="Z39" s="56" t="s">
+      <c r="Z39" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA39" s="14" t="s">
@@ -9798,7 +9790,7 @@
       <c r="BB39"/>
       <c r="BC39"/>
     </row>
-    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>12</v>
       </c>
@@ -9852,7 +9844,7 @@
       <c r="U40" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="V40" s="14" t="s">
+      <c r="V40" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W40" s="14" t="s">
@@ -9862,7 +9854,7 @@
         <v>43</v>
       </c>
       <c r="Y40" s="14"/>
-      <c r="Z40" s="52"/>
+      <c r="Z40" s="53"/>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
@@ -9929,7 +9921,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>13</v>
       </c>
@@ -9985,7 +9977,7 @@
       <c r="U41" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W41" s="14" t="s">
@@ -9995,7 +9987,7 @@
         <v>43</v>
       </c>
       <c r="Y41" s="14"/>
-      <c r="Z41" s="56" t="s">
+      <c r="Z41" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA41" s="14" t="s">
@@ -10068,7 +10060,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -10124,7 +10116,7 @@
       <c r="U42" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="V42" s="14" t="s">
+      <c r="V42" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W42" s="14" t="s">
@@ -10134,7 +10126,7 @@
         <v>43</v>
       </c>
       <c r="Y42" s="14"/>
-      <c r="Z42" s="56" t="s">
+      <c r="Z42" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA42" s="14" t="s">
@@ -10207,7 +10199,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>15</v>
       </c>
@@ -10263,7 +10255,7 @@
       <c r="U43" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="V43" s="14" t="s">
+      <c r="V43" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W43" s="14" t="s">
@@ -10273,7 +10265,7 @@
         <v>43</v>
       </c>
       <c r="Y43" s="14"/>
-      <c r="Z43" s="56" t="s">
+      <c r="Z43" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA43" s="14" t="s">
@@ -10346,7 +10338,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>16</v>
       </c>
@@ -10402,7 +10394,7 @@
       <c r="U44" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W44" s="14" t="s">
@@ -10412,7 +10404,7 @@
         <v>43</v>
       </c>
       <c r="Y44" s="14"/>
-      <c r="Z44" s="56" t="s">
+      <c r="Z44" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA44" s="14" t="s">
@@ -10485,7 +10477,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>17</v>
       </c>
@@ -10541,7 +10533,7 @@
       <c r="U45" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V45" s="14" t="s">
+      <c r="V45" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W45" s="14" t="s">
@@ -10551,7 +10543,7 @@
         <v>43</v>
       </c>
       <c r="Y45" s="14"/>
-      <c r="Z45" s="56" t="s">
+      <c r="Z45" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA45" s="14" t="s">
@@ -10626,7 +10618,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -10682,7 +10674,7 @@
       <c r="U46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V46" s="14" t="s">
+      <c r="V46" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W46" s="14" t="s">
@@ -10692,7 +10684,7 @@
         <v>43</v>
       </c>
       <c r="Y46" s="14"/>
-      <c r="Z46" s="56" t="s">
+      <c r="Z46" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA46" s="14" t="s">
@@ -10763,7 +10755,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>19</v>
       </c>
@@ -10819,7 +10811,7 @@
       <c r="U47" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W47" s="14" t="s">
@@ -10829,7 +10821,7 @@
         <v>43</v>
       </c>
       <c r="Y47" s="14"/>
-      <c r="Z47" s="56" t="s">
+      <c r="Z47" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA47" s="14" t="s">
@@ -10902,7 +10894,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>20</v>
       </c>
@@ -10958,7 +10950,7 @@
       <c r="U48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V48" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W48" s="14" t="s">
@@ -10968,7 +10960,7 @@
         <v>43</v>
       </c>
       <c r="Y48" s="14"/>
-      <c r="Z48" s="56" t="s">
+      <c r="Z48" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA48" s="14" t="s">
@@ -11041,7 +11033,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>21</v>
       </c>
@@ -11097,7 +11089,7 @@
       <c r="U49" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="V49" s="14" t="s">
+      <c r="V49" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W49" s="14" t="s">
@@ -11107,7 +11099,7 @@
         <v>43</v>
       </c>
       <c r="Y49" s="14"/>
-      <c r="Z49" s="56" t="s">
+      <c r="Z49" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA49" s="14" t="s">
@@ -11180,7 +11172,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>22</v>
       </c>
@@ -11236,7 +11228,7 @@
       <c r="U50" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W50" s="14" t="s">
@@ -11246,7 +11238,7 @@
         <v>43</v>
       </c>
       <c r="Y50" s="14"/>
-      <c r="Z50" s="56" t="s">
+      <c r="Z50" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA50" s="14" t="s">
@@ -11319,7 +11311,7 @@
       <c r="BB50"/>
       <c r="BC50"/>
     </row>
-    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>23</v>
       </c>
@@ -11373,7 +11365,7 @@
       <c r="U51" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="14"/>
+      <c r="V51" s="60"/>
       <c r="W51" s="14" t="s">
         <v>37</v>
       </c>
@@ -11381,7 +11373,7 @@
         <v>37</v>
       </c>
       <c r="Y51" s="14"/>
-      <c r="Z51" s="52"/>
+      <c r="Z51" s="53"/>
       <c r="AA51" s="14" t="s">
         <v>37</v>
       </c>
@@ -11426,7 +11418,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>24</v>
       </c>
@@ -11482,7 +11474,7 @@
       <c r="U52" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V52" s="14" t="s">
+      <c r="V52" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W52" s="14" t="s">
@@ -11492,7 +11484,7 @@
         <v>43</v>
       </c>
       <c r="Y52" s="14"/>
-      <c r="Z52" s="56" t="s">
+      <c r="Z52" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA52" s="14" t="s">
@@ -11565,7 +11557,7 @@
       <c r="BB52"/>
       <c r="BC52"/>
     </row>
-    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>25</v>
       </c>
@@ -11623,7 +11615,7 @@
       <c r="U53" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V53" s="14" t="s">
+      <c r="V53" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W53" s="14" t="s">
@@ -11633,7 +11625,7 @@
         <v>43</v>
       </c>
       <c r="Y53" s="14"/>
-      <c r="Z53" s="52" t="s">
+      <c r="Z53" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA53" s="14" t="s">
@@ -11710,7 +11702,7 @@
       </c>
       <c r="BC53"/>
     </row>
-    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>26</v>
       </c>
@@ -11766,7 +11758,7 @@
       <c r="U54" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V54" s="14" t="s">
+      <c r="V54" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W54" s="14" t="s">
@@ -11776,7 +11768,7 @@
         <v>43</v>
       </c>
       <c r="Y54" s="14"/>
-      <c r="Z54" s="56" t="s">
+      <c r="Z54" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA54" s="14" t="s">
@@ -11853,7 +11845,7 @@
       <c r="BB54"/>
       <c r="BC54"/>
     </row>
-    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -11909,7 +11901,7 @@
       <c r="U55" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V55" s="14" t="s">
+      <c r="V55" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W55" s="14" t="s">
@@ -11919,7 +11911,7 @@
         <v>43</v>
       </c>
       <c r="Y55" s="14"/>
-      <c r="Z55" s="56" t="s">
+      <c r="Z55" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA55" s="14" t="s">
@@ -11996,7 +11988,7 @@
       <c r="BB55"/>
       <c r="BC55"/>
     </row>
-    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>28</v>
       </c>
@@ -12052,7 +12044,7 @@
       <c r="U56" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V56" s="14" t="s">
+      <c r="V56" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W56" s="14" t="s">
@@ -12062,7 +12054,7 @@
         <v>37</v>
       </c>
       <c r="Y56" s="14"/>
-      <c r="Z56" s="52"/>
+      <c r="Z56" s="53"/>
       <c r="AA56" s="14" t="s">
         <v>37</v>
       </c>
@@ -12113,7 +12105,7 @@
       <c r="BB56"/>
       <c r="BC56"/>
     </row>
-    <row r="57" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>29</v>
       </c>
@@ -12167,7 +12159,7 @@
       <c r="U57" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V57" s="14" t="s">
+      <c r="V57" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W57" s="14" t="s">
@@ -12177,7 +12169,7 @@
         <v>456</v>
       </c>
       <c r="Y57" s="14"/>
-      <c r="Z57" s="52"/>
+      <c r="Z57" s="53"/>
       <c r="AA57" s="14" t="s">
         <v>37</v>
       </c>
@@ -12224,7 +12216,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>30</v>
       </c>
@@ -12280,7 +12272,7 @@
       <c r="U58" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="V58" s="14" t="s">
+      <c r="V58" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W58" s="14" t="s">
@@ -12290,7 +12282,7 @@
         <v>466</v>
       </c>
       <c r="Y58" s="14"/>
-      <c r="Z58" s="56" t="s">
+      <c r="Z58" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA58" s="14" t="s">
@@ -12363,7 +12355,7 @@
       <c r="BB58"/>
       <c r="BC58"/>
     </row>
-    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>31</v>
       </c>
@@ -12419,7 +12411,7 @@
       <c r="U59" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V59" s="14" t="s">
+      <c r="V59" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W59" s="14" t="s">
@@ -12429,7 +12421,7 @@
         <v>43</v>
       </c>
       <c r="Y59" s="14"/>
-      <c r="Z59" s="52"/>
+      <c r="Z59" s="53"/>
       <c r="AA59" s="14" t="s">
         <v>110</v>
       </c>
@@ -12502,7 +12494,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12558,7 +12550,7 @@
       <c r="U60" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V60" s="14" t="s">
+      <c r="V60" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W60" s="14" t="s">
@@ -12568,7 +12560,7 @@
         <v>466</v>
       </c>
       <c r="Y60" s="14"/>
-      <c r="Z60" s="56" t="s">
+      <c r="Z60" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA60" s="14" t="s">
@@ -12641,7 +12633,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12697,7 +12689,7 @@
       <c r="U61" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V61" s="14" t="s">
+      <c r="V61" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W61" s="14" t="s">
@@ -12707,7 +12699,7 @@
         <v>43</v>
       </c>
       <c r="Y61" s="14"/>
-      <c r="Z61" s="56" t="s">
+      <c r="Z61" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA61" s="14" t="s">
@@ -12780,7 +12772,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -12836,7 +12828,7 @@
       <c r="U62" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V62" s="14" t="s">
+      <c r="V62" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W62" s="14" t="s">
@@ -12846,7 +12838,7 @@
         <v>43</v>
       </c>
       <c r="Y62" s="14"/>
-      <c r="Z62" s="56" t="s">
+      <c r="Z62" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA62" s="14" t="s">
@@ -12919,7 +12911,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>35</v>
       </c>
@@ -12975,7 +12967,7 @@
       <c r="U63" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="V63" s="14" t="s">
+      <c r="V63" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W63" s="14" t="s">
@@ -12985,7 +12977,7 @@
         <v>43</v>
       </c>
       <c r="Y63" s="14"/>
-      <c r="Z63" s="56" t="s">
+      <c r="Z63" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA63" s="14" t="s">
@@ -13064,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>36</v>
       </c>
@@ -13118,7 +13110,7 @@
       <c r="U64" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V64" s="14" t="s">
+      <c r="V64" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W64" s="14" t="s">
@@ -13128,7 +13120,7 @@
         <v>37</v>
       </c>
       <c r="Y64" s="14"/>
-      <c r="Z64" s="52"/>
+      <c r="Z64" s="53"/>
       <c r="AA64" s="14" t="s">
         <v>37</v>
       </c>
@@ -13175,7 +13167,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>37</v>
       </c>
@@ -13233,7 +13225,7 @@
       <c r="U65" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="V65" s="14" t="s">
+      <c r="V65" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W65" s="14" t="s">
@@ -13243,7 +13235,7 @@
         <v>43</v>
       </c>
       <c r="Y65" s="14"/>
-      <c r="Z65" s="56" t="s">
+      <c r="Z65" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA65" s="14" t="s">
@@ -13318,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>38</v>
       </c>
@@ -13374,7 +13366,7 @@
       <c r="U66" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V66" s="14" t="s">
+      <c r="V66" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W66" s="14" t="s">
@@ -13384,7 +13376,7 @@
         <v>37</v>
       </c>
       <c r="Y66" s="14"/>
-      <c r="Z66" s="52"/>
+      <c r="Z66" s="53"/>
       <c r="AA66" s="14" t="s">
         <v>37</v>
       </c>
@@ -13433,7 +13425,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>39</v>
       </c>
@@ -13489,7 +13481,7 @@
       <c r="U67" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="V67" s="14" t="s">
+      <c r="V67" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W67" s="14" t="s">
@@ -13499,7 +13491,7 @@
         <v>43</v>
       </c>
       <c r="Y67" s="14"/>
-      <c r="Z67" s="56" t="s">
+      <c r="Z67" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA67" s="14" t="s">
@@ -13574,7 +13566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>40</v>
       </c>
@@ -13632,7 +13624,7 @@
       <c r="U68" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="V68" s="14" t="s">
+      <c r="V68" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W68" s="14" t="s">
@@ -13642,7 +13634,7 @@
         <v>43</v>
       </c>
       <c r="Y68" s="14"/>
-      <c r="Z68" s="52" t="s">
+      <c r="Z68" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA68" s="14" t="s">
@@ -13717,7 +13709,7 @@
       <c r="BB68"/>
       <c r="BC68"/>
     </row>
-    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>41</v>
       </c>
@@ -13773,7 +13765,7 @@
       <c r="U69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V69" s="14" t="s">
+      <c r="V69" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W69" s="14" t="s">
@@ -13783,7 +13775,7 @@
         <v>43</v>
       </c>
       <c r="Y69" s="14"/>
-      <c r="Z69" s="56" t="s">
+      <c r="Z69" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA69" s="14" t="s">
@@ -13860,7 +13852,7 @@
       <c r="BB69"/>
       <c r="BC69"/>
     </row>
-    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>42</v>
       </c>
@@ -13914,7 +13906,7 @@
       <c r="U70" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="V70" s="14" t="s">
+      <c r="V70" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W70" s="14" t="s">
@@ -13924,7 +13916,7 @@
         <v>37</v>
       </c>
       <c r="Y70" s="14"/>
-      <c r="Z70" s="52"/>
+      <c r="Z70" s="53"/>
       <c r="AA70" s="14" t="s">
         <v>37</v>
       </c>
@@ -13997,7 +13989,7 @@
       <c r="BB70"/>
       <c r="BC70"/>
     </row>
-    <row r="71" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>43</v>
       </c>
@@ -14053,7 +14045,7 @@
       <c r="U71" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V71" s="14" t="s">
+      <c r="V71" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W71" s="14" t="s">
@@ -14063,7 +14055,7 @@
         <v>37</v>
       </c>
       <c r="Y71" s="14"/>
-      <c r="Z71" s="52"/>
+      <c r="Z71" s="53"/>
       <c r="AA71" s="14" t="s">
         <v>37</v>
       </c>
@@ -14112,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>44</v>
       </c>
@@ -14168,7 +14160,7 @@
       <c r="U72" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="V72" s="14" t="s">
+      <c r="V72" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W72" s="14" t="s">
@@ -14178,7 +14170,7 @@
         <v>456</v>
       </c>
       <c r="Y72" s="14"/>
-      <c r="Z72" s="56" t="s">
+      <c r="Z72" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA72" s="14" t="s">
@@ -14253,7 +14245,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>45</v>
       </c>
@@ -14309,7 +14301,7 @@
       <c r="U73" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="V73" s="14" t="s">
+      <c r="V73" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W73" s="14" t="s">
@@ -14319,7 +14311,7 @@
         <v>456</v>
       </c>
       <c r="Y73" s="14"/>
-      <c r="Z73" s="56" t="s">
+      <c r="Z73" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA73" s="14" t="s">
@@ -14394,7 +14386,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -14450,7 +14442,7 @@
       <c r="U74" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V74" s="14" t="s">
+      <c r="V74" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W74" s="14" t="s">
@@ -14460,7 +14452,7 @@
         <v>43</v>
       </c>
       <c r="Y74" s="14"/>
-      <c r="Z74" s="56" t="s">
+      <c r="Z74" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA74" s="14" t="s">
@@ -14535,7 +14527,7 @@
       </c>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>47</v>
       </c>
@@ -14591,7 +14583,7 @@
       <c r="U75" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V75" s="14" t="s">
+      <c r="V75" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W75" s="14" t="s">
@@ -14601,7 +14593,7 @@
         <v>466</v>
       </c>
       <c r="Y75" s="14"/>
-      <c r="Z75" s="56" t="s">
+      <c r="Z75" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA75" s="14" t="s">
@@ -14676,7 +14668,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>48</v>
       </c>
@@ -14732,7 +14724,7 @@
       <c r="U76" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="V76" s="14" t="s">
+      <c r="V76" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W76" s="14" t="s">
@@ -14742,7 +14734,7 @@
         <v>466</v>
       </c>
       <c r="Y76" s="14"/>
-      <c r="Z76" s="56" t="s">
+      <c r="Z76" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA76" s="14" t="s">
@@ -14817,7 +14809,7 @@
       <c r="BB76"/>
       <c r="BC76"/>
     </row>
-    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>49</v>
       </c>
@@ -14871,7 +14863,7 @@
       <c r="U77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V77" s="14" t="s">
+      <c r="V77" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W77" s="14" t="s">
@@ -14881,7 +14873,7 @@
         <v>37</v>
       </c>
       <c r="Y77" s="14"/>
-      <c r="Z77" s="52"/>
+      <c r="Z77" s="53"/>
       <c r="AA77" s="14" t="s">
         <v>37</v>
       </c>
@@ -14930,7 +14922,7 @@
       <c r="BB77"/>
       <c r="BC77"/>
     </row>
-    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>50</v>
       </c>
@@ -14986,7 +14978,7 @@
       <c r="U78" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V78" s="14" t="s">
+      <c r="V78" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W78" s="14" t="s">
@@ -14996,7 +14988,7 @@
         <v>456</v>
       </c>
       <c r="Y78" s="14"/>
-      <c r="Z78" s="56" t="s">
+      <c r="Z78" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA78" s="14" t="s">
@@ -15127,7 +15119,7 @@
       <c r="U79" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V79" s="14" t="s">
+      <c r="V79" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W79" s="14" t="s">
@@ -15137,7 +15129,7 @@
         <v>43</v>
       </c>
       <c r="Y79" s="14"/>
-      <c r="Z79" s="56" t="s">
+      <c r="Z79" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA79" s="14" t="s">
@@ -15253,7 +15245,7 @@
       <c r="P80" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="Q80" s="63" t="s">
+      <c r="Q80" s="60" t="s">
         <v>55</v>
       </c>
       <c r="R80" s="14" t="s">
@@ -15268,7 +15260,7 @@
       <c r="U80" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V80" s="14" t="s">
+      <c r="V80" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W80" s="14" t="s">
@@ -15278,7 +15270,7 @@
         <v>43</v>
       </c>
       <c r="Y80" s="14"/>
-      <c r="Z80" s="56" t="s">
+      <c r="Z80" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA80" s="14" t="s">
@@ -15351,7 +15343,7 @@
       <c r="BB80"/>
       <c r="BC80"/>
     </row>
-    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>53</v>
       </c>
@@ -15405,7 +15397,7 @@
       <c r="U81" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V81" s="14"/>
+      <c r="V81" s="60"/>
       <c r="W81" s="14" t="s">
         <v>42</v>
       </c>
@@ -15413,7 +15405,7 @@
         <v>456</v>
       </c>
       <c r="Y81" s="14"/>
-      <c r="Z81" s="52"/>
+      <c r="Z81" s="53"/>
       <c r="AA81" s="14"/>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14" t="s">
@@ -15454,7 +15446,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>54</v>
       </c>
@@ -15510,7 +15502,7 @@
       <c r="U82" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="V82" s="14" t="s">
+      <c r="V82" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W82" s="14" t="s">
@@ -15520,7 +15512,7 @@
         <v>466</v>
       </c>
       <c r="Y82" s="14"/>
-      <c r="Z82" s="56" t="s">
+      <c r="Z82" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AA82" s="14" t="s">
@@ -15593,7 +15585,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15651,7 +15643,7 @@
       <c r="U83" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="V83" s="12" t="s">
+      <c r="V83" s="66" t="s">
         <v>41</v>
       </c>
       <c r="W83" s="12" t="s">
@@ -15661,7 +15653,7 @@
         <v>43</v>
       </c>
       <c r="Y83" s="12"/>
-      <c r="Z83" s="56" t="s">
+      <c r="Z83" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA83" s="12" t="s">
@@ -15734,7 +15726,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -15779,7 +15771,7 @@
       <c r="P84" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="Q84" s="63" t="s">
+      <c r="Q84" s="60" t="s">
         <v>36</v>
       </c>
       <c r="R84" s="14" t="s">
@@ -15794,7 +15786,7 @@
       <c r="U84" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V84" s="14" t="s">
+      <c r="V84" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W84" s="14" t="s">
@@ -15804,7 +15796,7 @@
         <v>43</v>
       </c>
       <c r="Y84" s="14"/>
-      <c r="Z84" s="56" t="s">
+      <c r="Z84" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA84" s="14" t="s">
@@ -15877,7 +15869,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -15935,7 +15927,7 @@
       <c r="U85" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="V85" s="14" t="s">
+      <c r="V85" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W85" s="14" t="s">
@@ -15945,7 +15937,7 @@
         <v>43</v>
       </c>
       <c r="Y85" s="14"/>
-      <c r="Z85" s="56" t="s">
+      <c r="Z85" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA85" s="14" t="s">
@@ -16018,7 +16010,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -16078,7 +16070,7 @@
       <c r="U86" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V86" s="14" t="s">
+      <c r="V86" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W86" s="14" t="s">
@@ -16088,7 +16080,7 @@
         <v>43</v>
       </c>
       <c r="Y86" s="14"/>
-      <c r="Z86" s="56" t="s">
+      <c r="Z86" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA86" s="14" t="s">
@@ -16161,7 +16153,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -16219,7 +16211,7 @@
       <c r="U87" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V87" s="14" t="s">
+      <c r="V87" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W87" s="14" t="s">
@@ -16229,7 +16221,7 @@
         <v>43</v>
       </c>
       <c r="Y87" s="14"/>
-      <c r="Z87" s="56" t="s">
+      <c r="Z87" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA87" s="14" t="s">
@@ -16302,7 +16294,7 @@
       <c r="BB87"/>
       <c r="BC87"/>
     </row>
-    <row r="88" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <v>6</v>
       </c>
@@ -16358,7 +16350,7 @@
       <c r="U88" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="V88" s="14" t="s">
+      <c r="V88" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W88" s="14" t="s">
@@ -16368,7 +16360,7 @@
         <v>43</v>
       </c>
       <c r="Y88" s="14"/>
-      <c r="Z88" s="52"/>
+      <c r="Z88" s="53"/>
       <c r="AA88" s="14" t="s">
         <v>44</v>
       </c>
@@ -16441,7 +16433,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16499,7 +16491,7 @@
       <c r="U89" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="V89" s="14" t="s">
+      <c r="V89" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W89" s="14" t="s">
@@ -16509,7 +16501,7 @@
         <v>43</v>
       </c>
       <c r="Y89" s="14"/>
-      <c r="Z89" s="56" t="s">
+      <c r="Z89" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA89" s="14" t="s">
@@ -16582,7 +16574,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16640,7 +16632,7 @@
       <c r="U90" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V90" s="14" t="s">
+      <c r="V90" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W90" s="14" t="s">
@@ -16650,7 +16642,7 @@
         <v>43</v>
       </c>
       <c r="Y90" s="14"/>
-      <c r="Z90" s="56" t="s">
+      <c r="Z90" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA90" s="14" t="s">
@@ -16725,7 +16717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -16783,7 +16775,7 @@
       <c r="U91" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="V91" s="14" t="s">
+      <c r="V91" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W91" s="14" t="s">
@@ -16793,7 +16785,7 @@
         <v>43</v>
       </c>
       <c r="Y91" s="14"/>
-      <c r="Z91" s="56" t="s">
+      <c r="Z91" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA91" s="14" t="s">
@@ -16866,7 +16858,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -16924,7 +16916,7 @@
       <c r="U92" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V92" s="14" t="s">
+      <c r="V92" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W92" s="14" t="s">
@@ -16934,7 +16926,7 @@
         <v>43</v>
       </c>
       <c r="Y92" s="14"/>
-      <c r="Z92" s="56" t="s">
+      <c r="Z92" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA92" s="14" t="s">
@@ -17009,7 +17001,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -17067,7 +17059,7 @@
       <c r="U93" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="V93" s="14" t="s">
+      <c r="V93" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W93" s="14" t="s">
@@ -17077,7 +17069,7 @@
         <v>43</v>
       </c>
       <c r="Y93" s="14"/>
-      <c r="Z93" s="56" t="s">
+      <c r="Z93" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA93" s="14" t="s">
@@ -17150,7 +17142,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -17208,7 +17200,7 @@
       <c r="U94" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V94" s="14" t="s">
+      <c r="V94" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W94" s="14" t="s">
@@ -17218,7 +17210,7 @@
         <v>43</v>
       </c>
       <c r="Y94" s="14"/>
-      <c r="Z94" s="56" t="s">
+      <c r="Z94" s="53" t="s">
         <v>1046</v>
       </c>
       <c r="AA94" s="14" t="s">
@@ -17287,7 +17279,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -17345,7 +17337,7 @@
       <c r="U95" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="V95" s="14" t="s">
+      <c r="V95" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W95" s="14" t="s">
@@ -17355,7 +17347,7 @@
         <v>43</v>
       </c>
       <c r="Y95" s="14"/>
-      <c r="Z95" s="57" t="s">
+      <c r="Z95" s="54" t="s">
         <v>1046</v>
       </c>
       <c r="AA95" s="14" t="s">
@@ -17428,7 +17420,7 @@
       <c r="BB95"/>
       <c r="BC95"/>
     </row>
-    <row r="96" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <v>14</v>
       </c>
@@ -17488,7 +17480,7 @@
       <c r="U96" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V96" s="14" t="s">
+      <c r="V96" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W96" s="14" t="s">
@@ -17498,7 +17490,7 @@
         <v>43</v>
       </c>
       <c r="Y96" s="14"/>
-      <c r="Z96" s="53" t="s">
+      <c r="Z96" s="54" t="s">
         <v>1046</v>
       </c>
       <c r="AA96" s="14" t="s">
@@ -17573,7 +17565,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <v>15</v>
       </c>
@@ -17631,7 +17623,7 @@
       <c r="U97" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V97" s="14" t="s">
+      <c r="V97" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W97" s="14" t="s">
@@ -17641,7 +17633,7 @@
         <v>43</v>
       </c>
       <c r="Y97" s="14"/>
-      <c r="Z97" s="57" t="s">
+      <c r="Z97" s="54" t="s">
         <v>1047</v>
       </c>
       <c r="AA97" s="14" t="s">
@@ -17714,7 +17706,7 @@
       <c r="BB97"/>
       <c r="BC97"/>
     </row>
-    <row r="98" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <v>16</v>
       </c>
@@ -17770,7 +17762,7 @@
       <c r="U98" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V98" s="14" t="s">
+      <c r="V98" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W98" s="14" t="s">
@@ -17780,7 +17772,7 @@
         <v>43</v>
       </c>
       <c r="Y98" s="14"/>
-      <c r="Z98" s="53"/>
+      <c r="Z98" s="54"/>
       <c r="AA98" s="14" t="s">
         <v>44</v>
       </c>
@@ -17829,7 +17821,7 @@
       </c>
       <c r="BC98"/>
     </row>
-    <row r="99" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <v>17</v>
       </c>
@@ -17883,7 +17875,7 @@
       <c r="U99" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V99" s="14"/>
+      <c r="V99" s="60"/>
       <c r="W99" s="14" t="s">
         <v>524</v>
       </c>
@@ -17891,7 +17883,7 @@
         <v>37</v>
       </c>
       <c r="Y99" s="14"/>
-      <c r="Z99" s="53"/>
+      <c r="Z99" s="54"/>
       <c r="AA99" s="14" t="s">
         <v>37</v>
       </c>
@@ -17940,7 +17932,7 @@
       </c>
       <c r="BC99"/>
     </row>
-    <row r="100" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>18</v>
       </c>
@@ -17998,7 +17990,7 @@
       <c r="U100" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V100" s="14" t="s">
+      <c r="V100" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W100" s="14" t="s">
@@ -18008,7 +18000,7 @@
         <v>43</v>
       </c>
       <c r="Y100" s="14"/>
-      <c r="Z100" s="53"/>
+      <c r="Z100" s="54"/>
       <c r="AA100" s="14" t="s">
         <v>37</v>
       </c>
@@ -18117,7 +18109,7 @@
       <c r="U101" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="V101" s="14" t="s">
+      <c r="V101" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W101" s="14" t="s">
@@ -18127,7 +18119,7 @@
         <v>43</v>
       </c>
       <c r="Y101" s="14"/>
-      <c r="Z101" s="57" t="s">
+      <c r="Z101" s="54" t="s">
         <v>1047</v>
       </c>
       <c r="AA101" s="14" t="s">
@@ -18200,7 +18192,7 @@
       <c r="BB101"/>
       <c r="BC101"/>
     </row>
-    <row r="102" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <v>20</v>
       </c>
@@ -18258,7 +18250,7 @@
       <c r="U102" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V102" s="14" t="s">
+      <c r="V102" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W102" s="14" t="s">
@@ -18268,7 +18260,7 @@
         <v>43</v>
       </c>
       <c r="Y102" s="14"/>
-      <c r="Z102" s="53"/>
+      <c r="Z102" s="54"/>
       <c r="AA102" s="14" t="s">
         <v>37</v>
       </c>
@@ -18375,7 +18367,7 @@
       <c r="U103" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="V103" s="14" t="s">
+      <c r="V103" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W103" s="14" t="s">
@@ -18385,7 +18377,7 @@
         <v>43</v>
       </c>
       <c r="Y103" s="14"/>
-      <c r="Z103" s="57" t="s">
+      <c r="Z103" s="54" t="s">
         <v>1046</v>
       </c>
       <c r="AA103" s="14" t="s">
@@ -18514,7 +18506,7 @@
       <c r="U104" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="V104" s="14" t="s">
+      <c r="V104" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W104" s="14" t="s">
@@ -18524,7 +18516,7 @@
         <v>43</v>
       </c>
       <c r="Y104" s="14"/>
-      <c r="Z104" s="58" t="s">
+      <c r="Z104" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA104" s="14" t="s">
@@ -18583,7 +18575,7 @@
       <c r="BB104"/>
       <c r="BC104"/>
     </row>
-    <row r="105" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <v>23</v>
       </c>
@@ -18639,7 +18631,7 @@
       <c r="U105" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V105" s="14" t="s">
+      <c r="V105" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W105" s="14" t="s">
@@ -18649,7 +18641,7 @@
         <v>466</v>
       </c>
       <c r="Y105" s="14"/>
-      <c r="Z105" s="54"/>
+      <c r="Z105" s="55"/>
       <c r="AA105" s="14"/>
       <c r="AB105" s="14" t="s">
         <v>45</v>
@@ -18694,7 +18686,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
     </row>
-    <row r="106" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <v>24</v>
       </c>
@@ -18744,7 +18736,7 @@
       <c r="U106" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V106" s="14"/>
+      <c r="V106" s="60"/>
       <c r="W106" s="14" t="s">
         <v>42</v>
       </c>
@@ -18752,7 +18744,7 @@
         <v>37</v>
       </c>
       <c r="Y106" s="14"/>
-      <c r="Z106" s="54"/>
+      <c r="Z106" s="55"/>
       <c r="AA106" s="14"/>
       <c r="AB106" s="14"/>
       <c r="AC106" s="14" t="s">
@@ -18795,7 +18787,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -18853,7 +18845,7 @@
       <c r="U107" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V107" s="14" t="s">
+      <c r="V107" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W107" s="14" t="s">
@@ -18863,7 +18855,7 @@
         <v>43</v>
       </c>
       <c r="Y107" s="14"/>
-      <c r="Z107" s="58" t="s">
+      <c r="Z107" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA107" s="14" t="s">
@@ -18936,7 +18928,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
     </row>
-    <row r="108" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <v>26</v>
       </c>
@@ -18994,7 +18986,7 @@
       <c r="U108" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V108" s="14" t="s">
+      <c r="V108" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W108" s="14" t="s">
@@ -19004,7 +18996,7 @@
         <v>43</v>
       </c>
       <c r="Y108" s="14"/>
-      <c r="Z108" s="58" t="s">
+      <c r="Z108" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA108" s="14" t="s">
@@ -19077,7 +19069,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -19117,7 +19109,7 @@
       <c r="O109" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="P109" s="63" t="s">
+      <c r="P109" s="60" t="s">
         <v>832</v>
       </c>
       <c r="Q109" s="14" t="s">
@@ -19135,7 +19127,7 @@
       <c r="U109" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V109" s="14" t="s">
+      <c r="V109" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W109" s="14" t="s">
@@ -19145,7 +19137,7 @@
         <v>43</v>
       </c>
       <c r="Y109" s="14"/>
-      <c r="Z109" s="58" t="s">
+      <c r="Z109" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA109" s="14" t="s">
@@ -19218,7 +19210,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
     </row>
-    <row r="110" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <v>28</v>
       </c>
@@ -19278,7 +19270,7 @@
       <c r="U110" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V110" s="14" t="s">
+      <c r="V110" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W110" s="14" t="s">
@@ -19288,7 +19280,7 @@
         <v>43</v>
       </c>
       <c r="Y110" s="14"/>
-      <c r="Z110" s="54" t="s">
+      <c r="Z110" s="55" t="s">
         <v>1047</v>
       </c>
       <c r="AA110" s="14" t="s">
@@ -19363,7 +19355,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -19421,7 +19413,7 @@
       <c r="U111" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="V111" s="14" t="s">
+      <c r="V111" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W111" s="14" t="s">
@@ -19431,7 +19423,7 @@
         <v>43</v>
       </c>
       <c r="Y111" s="14"/>
-      <c r="Z111" s="58" t="s">
+      <c r="Z111" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA111" s="14" t="s">
@@ -19504,7 +19496,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19562,7 +19554,7 @@
       <c r="U112" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V112" s="14" t="s">
+      <c r="V112" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W112" s="14" t="s">
@@ -19572,7 +19564,7 @@
         <v>43</v>
       </c>
       <c r="Y112" s="14"/>
-      <c r="Z112" s="58" t="s">
+      <c r="Z112" s="55" t="s">
         <v>1047</v>
       </c>
       <c r="AA112" s="14" t="s">
@@ -19647,7 +19639,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -19705,7 +19697,7 @@
       <c r="U113" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V113" s="14" t="s">
+      <c r="V113" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W113" s="14" t="s">
@@ -19715,7 +19707,7 @@
         <v>43</v>
       </c>
       <c r="Y113" s="14"/>
-      <c r="Z113" s="58" t="s">
+      <c r="Z113" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA113" s="14" t="s">
@@ -19788,7 +19780,7 @@
       <c r="BB113"/>
       <c r="BC113"/>
     </row>
-    <row r="114" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <v>32</v>
       </c>
@@ -19842,13 +19834,13 @@
       <c r="U114" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V114" s="14"/>
+      <c r="V114" s="60"/>
       <c r="W114" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
-      <c r="Z114" s="54"/>
+      <c r="Z114" s="55"/>
       <c r="AA114" s="14"/>
       <c r="AB114" s="14"/>
       <c r="AC114" s="14" t="s">
@@ -19889,7 +19881,7 @@
       <c r="BB114"/>
       <c r="BC114"/>
     </row>
-    <row r="115" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <v>33</v>
       </c>
@@ -19949,7 +19941,7 @@
       <c r="U115" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V115" s="14" t="s">
+      <c r="V115" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W115" s="14" t="s">
@@ -19959,7 +19951,7 @@
         <v>37</v>
       </c>
       <c r="Y115" s="14"/>
-      <c r="Z115" s="54"/>
+      <c r="Z115" s="55"/>
       <c r="AA115" s="14" t="s">
         <v>37</v>
       </c>
@@ -20004,7 +19996,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -20062,7 +20054,7 @@
       <c r="U116" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V116" s="14" t="s">
+      <c r="V116" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W116" s="14" t="s">
@@ -20072,7 +20064,7 @@
         <v>43</v>
       </c>
       <c r="Y116" s="14"/>
-      <c r="Z116" s="58" t="s">
+      <c r="Z116" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA116" s="14" t="s">
@@ -20145,7 +20137,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <v>35</v>
       </c>
@@ -20203,7 +20195,7 @@
       <c r="U117" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="V117" s="14" t="s">
+      <c r="V117" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W117" s="14" t="s">
@@ -20213,7 +20205,7 @@
         <v>43</v>
       </c>
       <c r="Y117" s="14"/>
-      <c r="Z117" s="58" t="s">
+      <c r="Z117" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA117" s="14" t="s">
@@ -20286,7 +20278,7 @@
       <c r="BB117"/>
       <c r="BC117"/>
     </row>
-    <row r="118" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <v>36</v>
       </c>
@@ -20346,7 +20338,7 @@
       <c r="U118" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V118" s="14" t="s">
+      <c r="V118" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W118" s="14" t="s">
@@ -20356,7 +20348,7 @@
         <v>43</v>
       </c>
       <c r="Y118" s="14"/>
-      <c r="Z118" s="54" t="s">
+      <c r="Z118" s="55" t="s">
         <v>1047</v>
       </c>
       <c r="AA118" s="14" t="s">
@@ -20431,7 +20423,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <v>37</v>
       </c>
@@ -20489,7 +20481,7 @@
       <c r="U119" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="V119" s="14" t="s">
+      <c r="V119" s="60" t="s">
         <v>58</v>
       </c>
       <c r="W119" s="14" t="s">
@@ -20499,7 +20491,7 @@
         <v>43</v>
       </c>
       <c r="Y119" s="14"/>
-      <c r="Z119" s="58" t="s">
+      <c r="Z119" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA119" s="14" t="s">
@@ -20572,7 +20564,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -20630,7 +20622,7 @@
       <c r="U120" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="V120" s="14" t="s">
+      <c r="V120" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W120" s="14" t="s">
@@ -20640,7 +20632,7 @@
         <v>43</v>
       </c>
       <c r="Y120" s="14"/>
-      <c r="Z120" s="58" t="s">
+      <c r="Z120" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA120" s="14" t="s">
@@ -20713,7 +20705,7 @@
       <c r="BB120"/>
       <c r="BC120"/>
     </row>
-    <row r="121" spans="1:55" s="10" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <v>39</v>
       </c>
@@ -20771,7 +20763,7 @@
       <c r="U121" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V121" s="14" t="s">
+      <c r="V121" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W121" s="14" t="s">
@@ -20781,7 +20773,7 @@
         <v>43</v>
       </c>
       <c r="Y121" s="14"/>
-      <c r="Z121" s="54"/>
+      <c r="Z121" s="55"/>
       <c r="AA121" s="14" t="s">
         <v>44</v>
       </c>
@@ -20852,7 +20844,7 @@
       <c r="BB121"/>
       <c r="BC121"/>
     </row>
-    <row r="122" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <v>40</v>
       </c>
@@ -20908,13 +20900,13 @@
       <c r="U122" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V122" s="14"/>
+      <c r="V122" s="60"/>
       <c r="W122" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X122" s="14"/>
       <c r="Y122" s="14"/>
-      <c r="Z122" s="54"/>
+      <c r="Z122" s="55"/>
       <c r="AA122" s="14"/>
       <c r="AB122" s="14"/>
       <c r="AC122" s="14"/>
@@ -20953,7 +20945,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -21011,7 +21003,7 @@
       <c r="U123" s="14" t="s">
         <v>917</v>
       </c>
-      <c r="V123" s="14" t="s">
+      <c r="V123" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W123" s="14" t="s">
@@ -21021,7 +21013,7 @@
         <v>43</v>
       </c>
       <c r="Y123" s="14"/>
-      <c r="Z123" s="58" t="s">
+      <c r="Z123" s="55" t="s">
         <v>1046</v>
       </c>
       <c r="AA123" s="14" t="s">
@@ -21094,7 +21086,7 @@
       <c r="BB123"/>
       <c r="BC123"/>
     </row>
-    <row r="124" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <v>42</v>
       </c>
@@ -21150,7 +21142,7 @@
       <c r="U124" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V124" s="14"/>
+      <c r="V124" s="60"/>
       <c r="W124" s="14" t="s">
         <v>37</v>
       </c>
@@ -21158,7 +21150,7 @@
         <v>37</v>
       </c>
       <c r="Y124" s="14"/>
-      <c r="Z124" s="54"/>
+      <c r="Z124" s="55"/>
       <c r="AA124" s="14" t="s">
         <v>37</v>
       </c>
@@ -21207,7 +21199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <v>43</v>
       </c>
@@ -21263,7 +21255,7 @@
       <c r="U125" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V125" s="14" t="s">
+      <c r="V125" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W125" s="14" t="s">
@@ -21273,7 +21265,7 @@
         <v>37</v>
       </c>
       <c r="Y125" s="14"/>
-      <c r="Z125" s="54"/>
+      <c r="Z125" s="55"/>
       <c r="AA125" s="14" t="s">
         <v>37</v>
       </c>
@@ -21322,7 +21314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -21380,7 +21372,7 @@
       <c r="U126" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="V126" s="14" t="s">
+      <c r="V126" s="60" t="s">
         <v>41</v>
       </c>
       <c r="W126" s="14" t="s">
@@ -21390,7 +21382,7 @@
         <v>43</v>
       </c>
       <c r="Y126" s="14"/>
-      <c r="Z126" s="58" t="s">
+      <c r="Z126" s="55" t="s">
         <v>1047</v>
       </c>
       <c r="AA126" s="14" t="s">
@@ -21461,7 +21453,7 @@
       <c r="BB126"/>
       <c r="BC126"/>
     </row>
-    <row r="127" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
         <v>45</v>
       </c>
@@ -21516,7 +21508,7 @@
       <c r="U127" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V127" s="14" t="s">
+      <c r="V127" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W127" s="14" t="s">
@@ -21526,7 +21518,7 @@
         <v>37</v>
       </c>
       <c r="Y127" s="14"/>
-      <c r="Z127"/>
+      <c r="Z127" s="42"/>
       <c r="AA127" s="14" t="s">
         <v>37</v>
       </c>
@@ -21575,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <v>46</v>
       </c>
@@ -21630,7 +21622,7 @@
       <c r="U128" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V128" s="14" t="s">
+      <c r="V128" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W128" s="14" t="s">
@@ -21640,7 +21632,7 @@
         <v>37</v>
       </c>
       <c r="Y128" s="14"/>
-      <c r="Z128"/>
+      <c r="Z128" s="42"/>
       <c r="AA128" s="14" t="s">
         <v>37</v>
       </c>
@@ -21690,1000 +21682,989 @@
       </c>
     </row>
     <row r="129" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="64"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="F129" s="60"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="66"/>
-      <c r="L129" s="66"/>
-      <c r="M129" s="66"/>
-      <c r="N129" s="66"/>
-      <c r="O129" s="66"/>
-      <c r="P129" s="66"/>
-      <c r="Q129" s="66"/>
-      <c r="R129" s="66"/>
-      <c r="S129" s="66"/>
-      <c r="T129" s="66"/>
-      <c r="U129" s="66"/>
-      <c r="V129" s="66"/>
-      <c r="W129" s="66"/>
-      <c r="X129" s="66"/>
-      <c r="Y129" s="66"/>
-      <c r="Z129" s="66"/>
-      <c r="AB129" s="66"/>
-      <c r="AC129" s="66"/>
-      <c r="AD129" s="66"/>
-      <c r="AE129" s="66"/>
-      <c r="AF129" s="66"/>
-      <c r="AG129" s="66"/>
-      <c r="AH129" s="66"/>
-      <c r="AI129" s="66"/>
-      <c r="AJ129" s="66"/>
-      <c r="AK129" s="66"/>
-      <c r="AL129" s="66"/>
-      <c r="AM129" s="66"/>
-      <c r="AN129" s="66"/>
-      <c r="AO129" s="66"/>
-      <c r="AP129" s="66"/>
-      <c r="AQ129" s="66"/>
-      <c r="AR129" s="66"/>
-      <c r="AS129" s="66"/>
-      <c r="AT129" s="66"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="F129" s="57"/>
+      <c r="H129" s="63"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="63"/>
+      <c r="K129" s="63"/>
+      <c r="L129" s="63"/>
+      <c r="M129" s="63"/>
+      <c r="N129" s="63"/>
+      <c r="O129" s="63"/>
+      <c r="P129" s="63"/>
+      <c r="Q129" s="63"/>
+      <c r="R129" s="63"/>
+      <c r="S129" s="63"/>
+      <c r="T129" s="63"/>
+      <c r="U129" s="63"/>
+      <c r="V129" s="63"/>
+      <c r="W129" s="63"/>
+      <c r="X129" s="63"/>
+      <c r="Y129" s="63"/>
+      <c r="Z129" s="63"/>
+      <c r="AB129" s="63"/>
+      <c r="AC129" s="63"/>
+      <c r="AD129" s="63"/>
+      <c r="AE129" s="63"/>
+      <c r="AF129" s="63"/>
+      <c r="AG129" s="63"/>
+      <c r="AH129" s="63"/>
+      <c r="AI129" s="63"/>
+      <c r="AJ129" s="63"/>
+      <c r="AK129" s="63"/>
+      <c r="AL129" s="63"/>
+      <c r="AM129" s="63"/>
+      <c r="AN129" s="63"/>
+      <c r="AO129" s="63"/>
+      <c r="AP129" s="63"/>
+      <c r="AQ129" s="63"/>
+      <c r="AR129" s="63"/>
+      <c r="AS129" s="63"/>
+      <c r="AT129" s="63"/>
       <c r="AU129" s="42"/>
       <c r="AV129" s="42"/>
       <c r="AW129" s="42"/>
     </row>
     <row r="130" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="64"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="F130" s="60"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="66"/>
-      <c r="O130" s="66"/>
-      <c r="P130" s="66"/>
-      <c r="Q130" s="66"/>
-      <c r="R130" s="66"/>
-      <c r="S130" s="66"/>
-      <c r="T130" s="66"/>
-      <c r="U130" s="66"/>
-      <c r="V130" s="66"/>
-      <c r="W130" s="66"/>
-      <c r="X130" s="66"/>
-      <c r="Y130" s="66"/>
-      <c r="Z130" s="66"/>
-      <c r="AB130" s="66"/>
-      <c r="AC130" s="66"/>
-      <c r="AD130" s="66"/>
-      <c r="AE130" s="66"/>
-      <c r="AF130" s="66"/>
-      <c r="AG130" s="66"/>
-      <c r="AH130" s="66"/>
-      <c r="AI130" s="66"/>
-      <c r="AJ130" s="66"/>
-      <c r="AK130" s="66"/>
-      <c r="AL130" s="66"/>
-      <c r="AM130" s="66"/>
-      <c r="AN130" s="66"/>
-      <c r="AO130" s="66"/>
-      <c r="AP130" s="66"/>
-      <c r="AQ130" s="66"/>
-      <c r="AR130" s="66"/>
-      <c r="AS130" s="66"/>
-      <c r="AT130" s="66"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="F130" s="57"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="64"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
+      <c r="L130" s="63"/>
+      <c r="M130" s="63"/>
+      <c r="N130" s="63"/>
+      <c r="O130" s="63"/>
+      <c r="P130" s="63"/>
+      <c r="Q130" s="63"/>
+      <c r="R130" s="63"/>
+      <c r="S130" s="63"/>
+      <c r="T130" s="63"/>
+      <c r="U130" s="63"/>
+      <c r="V130" s="63"/>
+      <c r="W130" s="63"/>
+      <c r="X130" s="63"/>
+      <c r="Y130" s="63"/>
+      <c r="Z130" s="63"/>
+      <c r="AB130" s="63"/>
+      <c r="AC130" s="63"/>
+      <c r="AD130" s="63"/>
+      <c r="AE130" s="63"/>
+      <c r="AF130" s="63"/>
+      <c r="AG130" s="63"/>
+      <c r="AH130" s="63"/>
+      <c r="AI130" s="63"/>
+      <c r="AJ130" s="63"/>
+      <c r="AK130" s="63"/>
+      <c r="AL130" s="63"/>
+      <c r="AM130" s="63"/>
+      <c r="AN130" s="63"/>
+      <c r="AO130" s="63"/>
+      <c r="AP130" s="63"/>
+      <c r="AQ130" s="63"/>
+      <c r="AR130" s="63"/>
+      <c r="AS130" s="63"/>
+      <c r="AT130" s="63"/>
       <c r="AU130" s="42"/>
       <c r="AV130" s="42"/>
       <c r="AW130" s="42"/>
     </row>
     <row r="131" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="64"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="F131" s="60"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="66"/>
-      <c r="L131" s="66"/>
-      <c r="M131" s="66"/>
-      <c r="N131" s="66"/>
-      <c r="O131" s="66"/>
-      <c r="P131" s="66"/>
-      <c r="Q131" s="66"/>
-      <c r="R131" s="66"/>
-      <c r="S131" s="66"/>
-      <c r="T131" s="66"/>
-      <c r="U131" s="66"/>
-      <c r="V131" s="66"/>
-      <c r="W131" s="66"/>
-      <c r="X131" s="66"/>
-      <c r="Y131" s="66"/>
-      <c r="Z131" s="66"/>
-      <c r="AB131" s="66"/>
-      <c r="AC131" s="66"/>
-      <c r="AD131" s="66"/>
-      <c r="AE131" s="66"/>
-      <c r="AF131" s="66"/>
-      <c r="AG131" s="66"/>
-      <c r="AH131" s="66"/>
-      <c r="AI131" s="66"/>
-      <c r="AJ131" s="66"/>
-      <c r="AK131" s="66"/>
-      <c r="AL131" s="66"/>
-      <c r="AM131" s="66"/>
-      <c r="AN131" s="66"/>
-      <c r="AO131" s="66"/>
-      <c r="AP131" s="66"/>
-      <c r="AQ131" s="66"/>
-      <c r="AR131" s="66"/>
-      <c r="AS131" s="66"/>
-      <c r="AT131" s="66"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="F131" s="57"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="63"/>
+      <c r="L131" s="63"/>
+      <c r="M131" s="63"/>
+      <c r="N131" s="63"/>
+      <c r="O131" s="63"/>
+      <c r="P131" s="63"/>
+      <c r="Q131" s="63"/>
+      <c r="R131" s="63"/>
+      <c r="S131" s="63"/>
+      <c r="T131" s="63"/>
+      <c r="U131" s="63"/>
+      <c r="V131" s="63"/>
+      <c r="W131" s="63"/>
+      <c r="X131" s="63"/>
+      <c r="Y131" s="63"/>
+      <c r="Z131" s="63"/>
+      <c r="AB131" s="63"/>
+      <c r="AC131" s="63"/>
+      <c r="AD131" s="63"/>
+      <c r="AE131" s="63"/>
+      <c r="AF131" s="63"/>
+      <c r="AG131" s="63"/>
+      <c r="AH131" s="63"/>
+      <c r="AI131" s="63"/>
+      <c r="AJ131" s="63"/>
+      <c r="AK131" s="63"/>
+      <c r="AL131" s="63"/>
+      <c r="AM131" s="63"/>
+      <c r="AN131" s="63"/>
+      <c r="AO131" s="63"/>
+      <c r="AP131" s="63"/>
+      <c r="AQ131" s="63"/>
+      <c r="AR131" s="63"/>
+      <c r="AS131" s="63"/>
+      <c r="AT131" s="63"/>
       <c r="AU131" s="42"/>
       <c r="AV131" s="42"/>
       <c r="AW131" s="42"/>
     </row>
     <row r="132" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="64"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="F132" s="60"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="66"/>
-      <c r="K132" s="66"/>
-      <c r="L132" s="66"/>
-      <c r="M132" s="66"/>
-      <c r="N132" s="66"/>
-      <c r="O132" s="66"/>
-      <c r="P132" s="66"/>
-      <c r="Q132" s="66"/>
-      <c r="R132" s="66"/>
-      <c r="S132" s="66"/>
-      <c r="T132" s="66"/>
-      <c r="U132" s="66"/>
-      <c r="V132" s="66"/>
-      <c r="W132" s="66"/>
-      <c r="X132" s="66"/>
-      <c r="Y132" s="66"/>
-      <c r="Z132" s="66"/>
-      <c r="AB132" s="66"/>
-      <c r="AC132" s="66"/>
-      <c r="AD132" s="66"/>
-      <c r="AE132" s="66"/>
-      <c r="AF132" s="66"/>
-      <c r="AG132" s="66"/>
-      <c r="AH132" s="66"/>
-      <c r="AI132" s="66"/>
-      <c r="AJ132" s="66"/>
-      <c r="AK132" s="66"/>
-      <c r="AL132" s="66"/>
-      <c r="AM132" s="66"/>
-      <c r="AN132" s="66"/>
-      <c r="AO132" s="66"/>
-      <c r="AP132" s="66"/>
-      <c r="AQ132" s="66"/>
-      <c r="AR132" s="66"/>
-      <c r="AS132" s="66"/>
-      <c r="AT132" s="66"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="F132" s="57"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="64"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="63"/>
+      <c r="L132" s="63"/>
+      <c r="M132" s="63"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="63"/>
+      <c r="P132" s="63"/>
+      <c r="Q132" s="63"/>
+      <c r="R132" s="63"/>
+      <c r="S132" s="63"/>
+      <c r="T132" s="63"/>
+      <c r="U132" s="63"/>
+      <c r="V132" s="63"/>
+      <c r="W132" s="63"/>
+      <c r="X132" s="63"/>
+      <c r="Y132" s="63"/>
+      <c r="Z132" s="63"/>
+      <c r="AB132" s="63"/>
+      <c r="AC132" s="63"/>
+      <c r="AD132" s="63"/>
+      <c r="AE132" s="63"/>
+      <c r="AF132" s="63"/>
+      <c r="AG132" s="63"/>
+      <c r="AH132" s="63"/>
+      <c r="AI132" s="63"/>
+      <c r="AJ132" s="63"/>
+      <c r="AK132" s="63"/>
+      <c r="AL132" s="63"/>
+      <c r="AM132" s="63"/>
+      <c r="AN132" s="63"/>
+      <c r="AO132" s="63"/>
+      <c r="AP132" s="63"/>
+      <c r="AQ132" s="63"/>
+      <c r="AR132" s="63"/>
+      <c r="AS132" s="63"/>
+      <c r="AT132" s="63"/>
       <c r="AU132" s="42"/>
       <c r="AV132" s="42"/>
       <c r="AW132" s="42"/>
     </row>
     <row r="133" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="64"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="F133" s="60"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="67"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="66"/>
-      <c r="L133" s="66"/>
-      <c r="M133" s="66"/>
-      <c r="N133" s="66"/>
-      <c r="O133" s="66"/>
-      <c r="P133" s="66"/>
-      <c r="Q133" s="66"/>
-      <c r="R133" s="66"/>
-      <c r="S133" s="66"/>
-      <c r="T133" s="66"/>
-      <c r="U133" s="66"/>
-      <c r="V133" s="66"/>
-      <c r="W133" s="66"/>
-      <c r="X133" s="66"/>
-      <c r="Y133" s="66"/>
-      <c r="Z133" s="66"/>
-      <c r="AB133" s="66"/>
-      <c r="AC133" s="66"/>
-      <c r="AD133" s="66"/>
-      <c r="AE133" s="66"/>
-      <c r="AF133" s="66"/>
-      <c r="AG133" s="66"/>
-      <c r="AH133" s="66"/>
-      <c r="AI133" s="66"/>
-      <c r="AJ133" s="66"/>
-      <c r="AK133" s="66"/>
-      <c r="AL133" s="66"/>
-      <c r="AM133" s="66"/>
-      <c r="AN133" s="66"/>
-      <c r="AO133" s="66"/>
-      <c r="AP133" s="66"/>
-      <c r="AQ133" s="66"/>
-      <c r="AR133" s="66"/>
-      <c r="AS133" s="66"/>
-      <c r="AT133" s="66"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
+      <c r="F133" s="57"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="64"/>
+      <c r="J133" s="63"/>
+      <c r="K133" s="63"/>
+      <c r="L133" s="63"/>
+      <c r="M133" s="63"/>
+      <c r="N133" s="63"/>
+      <c r="O133" s="63"/>
+      <c r="P133" s="63"/>
+      <c r="Q133" s="63"/>
+      <c r="R133" s="63"/>
+      <c r="S133" s="63"/>
+      <c r="T133" s="63"/>
+      <c r="U133" s="63"/>
+      <c r="V133" s="63"/>
+      <c r="W133" s="63"/>
+      <c r="X133" s="63"/>
+      <c r="Y133" s="63"/>
+      <c r="Z133" s="63"/>
+      <c r="AB133" s="63"/>
+      <c r="AC133" s="63"/>
+      <c r="AD133" s="63"/>
+      <c r="AE133" s="63"/>
+      <c r="AF133" s="63"/>
+      <c r="AG133" s="63"/>
+      <c r="AH133" s="63"/>
+      <c r="AI133" s="63"/>
+      <c r="AJ133" s="63"/>
+      <c r="AK133" s="63"/>
+      <c r="AL133" s="63"/>
+      <c r="AM133" s="63"/>
+      <c r="AN133" s="63"/>
+      <c r="AO133" s="63"/>
+      <c r="AP133" s="63"/>
+      <c r="AQ133" s="63"/>
+      <c r="AR133" s="63"/>
+      <c r="AS133" s="63"/>
+      <c r="AT133" s="63"/>
       <c r="AU133" s="42"/>
       <c r="AV133" s="42"/>
       <c r="AW133" s="42"/>
     </row>
     <row r="134" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="64"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="F134" s="60"/>
-      <c r="H134" s="66"/>
-      <c r="I134" s="66"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="66"/>
-      <c r="L134" s="66"/>
-      <c r="M134" s="66"/>
-      <c r="N134" s="66"/>
-      <c r="O134" s="66"/>
-      <c r="P134" s="66"/>
-      <c r="Q134" s="66"/>
-      <c r="R134" s="66"/>
-      <c r="S134" s="66"/>
-      <c r="T134" s="66"/>
-      <c r="U134" s="66"/>
-      <c r="V134" s="66"/>
-      <c r="W134" s="66"/>
-      <c r="X134" s="66"/>
-      <c r="Y134" s="66"/>
-      <c r="Z134" s="66"/>
-      <c r="AB134" s="66"/>
-      <c r="AC134" s="66"/>
-      <c r="AD134" s="66"/>
-      <c r="AE134" s="66"/>
-      <c r="AF134" s="66"/>
-      <c r="AG134" s="66"/>
-      <c r="AH134" s="66"/>
-      <c r="AI134" s="66"/>
-      <c r="AJ134" s="66"/>
-      <c r="AK134" s="66"/>
-      <c r="AL134" s="66"/>
-      <c r="AM134" s="66"/>
-      <c r="AN134" s="66"/>
-      <c r="AO134" s="66"/>
-      <c r="AP134" s="66"/>
-      <c r="AQ134" s="66"/>
-      <c r="AR134" s="66"/>
-      <c r="AS134" s="66"/>
-      <c r="AT134" s="66"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
+      <c r="F134" s="57"/>
+      <c r="H134" s="63"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="63"/>
+      <c r="K134" s="63"/>
+      <c r="L134" s="63"/>
+      <c r="M134" s="63"/>
+      <c r="N134" s="63"/>
+      <c r="O134" s="63"/>
+      <c r="P134" s="63"/>
+      <c r="Q134" s="63"/>
+      <c r="R134" s="63"/>
+      <c r="S134" s="63"/>
+      <c r="T134" s="63"/>
+      <c r="U134" s="63"/>
+      <c r="V134" s="63"/>
+      <c r="W134" s="63"/>
+      <c r="X134" s="63"/>
+      <c r="Y134" s="63"/>
+      <c r="Z134" s="63"/>
+      <c r="AB134" s="63"/>
+      <c r="AC134" s="63"/>
+      <c r="AD134" s="63"/>
+      <c r="AE134" s="63"/>
+      <c r="AF134" s="63"/>
+      <c r="AG134" s="63"/>
+      <c r="AH134" s="63"/>
+      <c r="AI134" s="63"/>
+      <c r="AJ134" s="63"/>
+      <c r="AK134" s="63"/>
+      <c r="AL134" s="63"/>
+      <c r="AM134" s="63"/>
+      <c r="AN134" s="63"/>
+      <c r="AO134" s="63"/>
+      <c r="AP134" s="63"/>
+      <c r="AQ134" s="63"/>
+      <c r="AR134" s="63"/>
+      <c r="AS134" s="63"/>
+      <c r="AT134" s="63"/>
       <c r="AU134" s="42"/>
       <c r="AV134" s="42"/>
       <c r="AW134" s="42"/>
     </row>
     <row r="135" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="64"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="F135" s="60"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="67"/>
-      <c r="J135" s="66"/>
-      <c r="K135" s="66"/>
-      <c r="L135" s="66"/>
-      <c r="M135" s="66"/>
-      <c r="N135" s="66"/>
-      <c r="O135" s="66"/>
-      <c r="P135" s="66"/>
-      <c r="Q135" s="66"/>
-      <c r="R135" s="66"/>
-      <c r="S135" s="66"/>
-      <c r="T135" s="66"/>
-      <c r="U135" s="66"/>
-      <c r="V135" s="66"/>
-      <c r="W135" s="66"/>
-      <c r="X135" s="66"/>
-      <c r="Y135" s="66"/>
-      <c r="Z135" s="66"/>
-      <c r="AB135" s="66"/>
-      <c r="AC135" s="66"/>
-      <c r="AD135" s="66"/>
-      <c r="AE135" s="66"/>
-      <c r="AF135" s="66"/>
-      <c r="AG135" s="66"/>
-      <c r="AH135" s="66"/>
-      <c r="AI135" s="66"/>
-      <c r="AJ135" s="66"/>
-      <c r="AK135" s="66"/>
-      <c r="AL135" s="66"/>
-      <c r="AM135" s="66"/>
-      <c r="AN135" s="66"/>
-      <c r="AO135" s="66"/>
-      <c r="AP135" s="66"/>
-      <c r="AQ135" s="66"/>
-      <c r="AR135" s="66"/>
-      <c r="AS135" s="66"/>
-      <c r="AT135" s="66"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="F135" s="57"/>
+      <c r="H135" s="63"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="63"/>
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
+      <c r="O135" s="63"/>
+      <c r="P135" s="63"/>
+      <c r="Q135" s="63"/>
+      <c r="R135" s="63"/>
+      <c r="S135" s="63"/>
+      <c r="T135" s="63"/>
+      <c r="U135" s="63"/>
+      <c r="V135" s="63"/>
+      <c r="W135" s="63"/>
+      <c r="X135" s="63"/>
+      <c r="Y135" s="63"/>
+      <c r="Z135" s="63"/>
+      <c r="AB135" s="63"/>
+      <c r="AC135" s="63"/>
+      <c r="AD135" s="63"/>
+      <c r="AE135" s="63"/>
+      <c r="AF135" s="63"/>
+      <c r="AG135" s="63"/>
+      <c r="AH135" s="63"/>
+      <c r="AI135" s="63"/>
+      <c r="AJ135" s="63"/>
+      <c r="AK135" s="63"/>
+      <c r="AL135" s="63"/>
+      <c r="AM135" s="63"/>
+      <c r="AN135" s="63"/>
+      <c r="AO135" s="63"/>
+      <c r="AP135" s="63"/>
+      <c r="AQ135" s="63"/>
+      <c r="AR135" s="63"/>
+      <c r="AS135" s="63"/>
+      <c r="AT135" s="63"/>
       <c r="AU135" s="42"/>
       <c r="AV135" s="42"/>
       <c r="AW135" s="42"/>
     </row>
     <row r="136" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="64"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="F136" s="60"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66"/>
-      <c r="N136" s="66"/>
-      <c r="O136" s="66"/>
-      <c r="P136" s="66"/>
-      <c r="Q136" s="66"/>
-      <c r="R136" s="66"/>
-      <c r="S136" s="66"/>
-      <c r="T136" s="66"/>
-      <c r="U136" s="66"/>
-      <c r="V136" s="66"/>
-      <c r="W136" s="66"/>
-      <c r="X136" s="66"/>
-      <c r="Y136" s="66"/>
-      <c r="Z136" s="66"/>
-      <c r="AB136" s="66"/>
-      <c r="AC136" s="66"/>
-      <c r="AD136" s="66"/>
-      <c r="AE136" s="66"/>
-      <c r="AF136" s="66"/>
-      <c r="AG136" s="66"/>
-      <c r="AH136" s="66"/>
-      <c r="AI136" s="66"/>
-      <c r="AJ136" s="66"/>
-      <c r="AK136" s="66"/>
-      <c r="AL136" s="66"/>
-      <c r="AM136" s="66"/>
-      <c r="AN136" s="66"/>
-      <c r="AO136" s="66"/>
-      <c r="AP136" s="66"/>
-      <c r="AQ136" s="66"/>
-      <c r="AR136" s="66"/>
-      <c r="AS136" s="66"/>
-      <c r="AT136" s="66"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="F136" s="57"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
+      <c r="O136" s="63"/>
+      <c r="P136" s="63"/>
+      <c r="Q136" s="63"/>
+      <c r="R136" s="63"/>
+      <c r="S136" s="63"/>
+      <c r="T136" s="63"/>
+      <c r="U136" s="63"/>
+      <c r="V136" s="63"/>
+      <c r="W136" s="63"/>
+      <c r="X136" s="63"/>
+      <c r="Y136" s="63"/>
+      <c r="Z136" s="63"/>
+      <c r="AB136" s="63"/>
+      <c r="AC136" s="63"/>
+      <c r="AD136" s="63"/>
+      <c r="AE136" s="63"/>
+      <c r="AF136" s="63"/>
+      <c r="AG136" s="63"/>
+      <c r="AH136" s="63"/>
+      <c r="AI136" s="63"/>
+      <c r="AJ136" s="63"/>
+      <c r="AK136" s="63"/>
+      <c r="AL136" s="63"/>
+      <c r="AM136" s="63"/>
+      <c r="AN136" s="63"/>
+      <c r="AO136" s="63"/>
+      <c r="AP136" s="63"/>
+      <c r="AQ136" s="63"/>
+      <c r="AR136" s="63"/>
+      <c r="AS136" s="63"/>
+      <c r="AT136" s="63"/>
       <c r="AU136" s="42"/>
       <c r="AV136" s="42"/>
       <c r="AW136" s="42"/>
     </row>
     <row r="137" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="64"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="F137" s="60"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="66"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="66"/>
-      <c r="O137" s="66"/>
-      <c r="P137" s="66"/>
-      <c r="Q137" s="66"/>
-      <c r="R137" s="66"/>
-      <c r="S137" s="66"/>
-      <c r="T137" s="66"/>
-      <c r="U137" s="66"/>
-      <c r="V137" s="66"/>
-      <c r="W137" s="66"/>
-      <c r="X137" s="66"/>
-      <c r="Y137" s="66"/>
-      <c r="Z137" s="66"/>
-      <c r="AB137" s="66"/>
-      <c r="AC137" s="66"/>
-      <c r="AD137" s="66"/>
-      <c r="AE137" s="66"/>
-      <c r="AF137" s="66"/>
-      <c r="AG137" s="66"/>
-      <c r="AH137" s="66"/>
-      <c r="AI137" s="66"/>
-      <c r="AJ137" s="66"/>
-      <c r="AK137" s="66"/>
-      <c r="AL137" s="66"/>
-      <c r="AM137" s="66"/>
-      <c r="AN137" s="66"/>
-      <c r="AO137" s="66"/>
-      <c r="AP137" s="66"/>
-      <c r="AQ137" s="66"/>
-      <c r="AR137" s="66"/>
-      <c r="AS137" s="66"/>
-      <c r="AT137" s="66"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="F137" s="57"/>
+      <c r="H137" s="63"/>
+      <c r="I137" s="64"/>
+      <c r="J137" s="63"/>
+      <c r="K137" s="63"/>
+      <c r="L137" s="63"/>
+      <c r="M137" s="63"/>
+      <c r="N137" s="63"/>
+      <c r="O137" s="63"/>
+      <c r="P137" s="63"/>
+      <c r="Q137" s="63"/>
+      <c r="R137" s="63"/>
+      <c r="S137" s="63"/>
+      <c r="T137" s="63"/>
+      <c r="U137" s="63"/>
+      <c r="V137" s="63"/>
+      <c r="W137" s="63"/>
+      <c r="X137" s="63"/>
+      <c r="Y137" s="63"/>
+      <c r="Z137" s="63"/>
+      <c r="AB137" s="63"/>
+      <c r="AC137" s="63"/>
+      <c r="AD137" s="63"/>
+      <c r="AE137" s="63"/>
+      <c r="AF137" s="63"/>
+      <c r="AG137" s="63"/>
+      <c r="AH137" s="63"/>
+      <c r="AI137" s="63"/>
+      <c r="AJ137" s="63"/>
+      <c r="AK137" s="63"/>
+      <c r="AL137" s="63"/>
+      <c r="AM137" s="63"/>
+      <c r="AN137" s="63"/>
+      <c r="AO137" s="63"/>
+      <c r="AP137" s="63"/>
+      <c r="AQ137" s="63"/>
+      <c r="AR137" s="63"/>
+      <c r="AS137" s="63"/>
+      <c r="AT137" s="63"/>
       <c r="AU137" s="42"/>
       <c r="AV137" s="42"/>
       <c r="AW137" s="42"/>
     </row>
     <row r="138" spans="1:49" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="64"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="F138" s="60"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
-      <c r="M138" s="66"/>
-      <c r="N138" s="66"/>
-      <c r="O138" s="66"/>
-      <c r="P138" s="66"/>
-      <c r="Q138" s="66"/>
-      <c r="R138" s="66"/>
-      <c r="S138" s="66"/>
-      <c r="T138" s="66"/>
-      <c r="U138" s="66"/>
-      <c r="V138" s="66"/>
-      <c r="W138" s="66"/>
-      <c r="X138" s="66"/>
-      <c r="Y138" s="66"/>
-      <c r="Z138" s="66"/>
-      <c r="AB138" s="66"/>
-      <c r="AC138" s="66"/>
-      <c r="AD138" s="66"/>
-      <c r="AE138" s="66"/>
-      <c r="AF138" s="66"/>
-      <c r="AG138" s="66"/>
-      <c r="AH138" s="66"/>
-      <c r="AI138" s="66"/>
-      <c r="AJ138" s="66"/>
-      <c r="AK138" s="66"/>
-      <c r="AL138" s="66"/>
-      <c r="AM138" s="66"/>
-      <c r="AN138" s="66"/>
-      <c r="AO138" s="66"/>
-      <c r="AP138" s="66"/>
-      <c r="AQ138" s="66"/>
-      <c r="AR138" s="66"/>
-      <c r="AS138" s="66"/>
-      <c r="AT138" s="66"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="62"/>
+      <c r="F138" s="57"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="64"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="63"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
+      <c r="O138" s="63"/>
+      <c r="P138" s="63"/>
+      <c r="Q138" s="63"/>
+      <c r="R138" s="63"/>
+      <c r="S138" s="63"/>
+      <c r="T138" s="63"/>
+      <c r="U138" s="63"/>
+      <c r="V138" s="63"/>
+      <c r="W138" s="63"/>
+      <c r="X138" s="63"/>
+      <c r="Y138" s="63"/>
+      <c r="Z138" s="63"/>
+      <c r="AB138" s="63"/>
+      <c r="AC138" s="63"/>
+      <c r="AD138" s="63"/>
+      <c r="AE138" s="63"/>
+      <c r="AF138" s="63"/>
+      <c r="AG138" s="63"/>
+      <c r="AH138" s="63"/>
+      <c r="AI138" s="63"/>
+      <c r="AJ138" s="63"/>
+      <c r="AK138" s="63"/>
+      <c r="AL138" s="63"/>
+      <c r="AM138" s="63"/>
+      <c r="AN138" s="63"/>
+      <c r="AO138" s="63"/>
+      <c r="AP138" s="63"/>
+      <c r="AQ138" s="63"/>
+      <c r="AR138" s="63"/>
+      <c r="AS138" s="63"/>
+      <c r="AT138" s="63"/>
       <c r="AU138" s="42"/>
       <c r="AV138" s="42"/>
       <c r="AW138" s="42"/>
     </row>
     <row r="139" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E139" s="60"/>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61"/>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="61"/>
-      <c r="P139" s="61"/>
-      <c r="Q139" s="61"/>
-      <c r="R139" s="61"/>
-      <c r="S139" s="61"/>
-      <c r="T139" s="61"/>
-      <c r="U139" s="61"/>
-      <c r="V139" s="61"/>
-      <c r="W139" s="61"/>
-      <c r="X139" s="61"/>
-      <c r="Y139" s="61"/>
-      <c r="Z139" s="61"/>
-      <c r="AA139" s="61"/>
-      <c r="AB139" s="61"/>
-      <c r="AC139" s="61"/>
-      <c r="AD139" s="61"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="59"/>
+      <c r="I139" s="58"/>
+      <c r="J139" s="58"/>
+      <c r="K139" s="58"/>
+      <c r="L139" s="58"/>
+      <c r="M139" s="58"/>
+      <c r="N139" s="58"/>
+      <c r="O139" s="58"/>
+      <c r="P139" s="58"/>
+      <c r="Q139" s="58"/>
+      <c r="R139" s="58"/>
+      <c r="S139" s="58"/>
+      <c r="T139" s="58"/>
+      <c r="U139" s="58"/>
+      <c r="V139" s="58"/>
+      <c r="W139" s="58"/>
+      <c r="X139" s="58"/>
+      <c r="Y139" s="58"/>
+      <c r="Z139" s="63"/>
+      <c r="AA139" s="58"/>
+      <c r="AB139" s="58"/>
+      <c r="AC139" s="58"/>
+      <c r="AD139" s="58"/>
     </row>
     <row r="140" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E140" s="60"/>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="61"/>
-      <c r="J140" s="61"/>
-      <c r="K140" s="61"/>
-      <c r="L140" s="61"/>
-      <c r="M140" s="61"/>
-      <c r="N140" s="61"/>
-      <c r="O140" s="61"/>
-      <c r="P140" s="61"/>
-      <c r="Q140" s="61"/>
-      <c r="R140" s="61"/>
-      <c r="S140" s="61"/>
-      <c r="T140" s="61"/>
-      <c r="U140" s="61"/>
-      <c r="V140" s="61"/>
-      <c r="W140" s="61"/>
-      <c r="X140" s="61"/>
-      <c r="Y140" s="61"/>
-      <c r="Z140" s="61"/>
-      <c r="AA140" s="61"/>
-      <c r="AB140" s="61"/>
-      <c r="AC140" s="61"/>
-      <c r="AD140" s="61"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="58"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="58"/>
+      <c r="M140" s="58"/>
+      <c r="N140" s="58"/>
+      <c r="O140" s="58"/>
+      <c r="P140" s="58"/>
+      <c r="Q140" s="58"/>
+      <c r="R140" s="58"/>
+      <c r="S140" s="58"/>
+      <c r="T140" s="58"/>
+      <c r="U140" s="58"/>
+      <c r="V140" s="58"/>
+      <c r="W140" s="58"/>
+      <c r="X140" s="58"/>
+      <c r="Y140" s="58"/>
+      <c r="Z140" s="63"/>
+      <c r="AA140" s="58"/>
+      <c r="AB140" s="58"/>
+      <c r="AC140" s="58"/>
+      <c r="AD140" s="58"/>
     </row>
     <row r="141" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E141" s="60"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="61"/>
-      <c r="L141" s="61"/>
-      <c r="M141" s="61"/>
-      <c r="N141" s="61"/>
-      <c r="O141" s="61"/>
-      <c r="P141" s="61"/>
-      <c r="Q141" s="61"/>
-      <c r="R141" s="61"/>
-      <c r="S141" s="61"/>
-      <c r="T141" s="61"/>
-      <c r="U141" s="61"/>
-      <c r="V141" s="61"/>
-      <c r="W141" s="61"/>
-      <c r="X141" s="61"/>
-      <c r="Y141" s="61"/>
-      <c r="Z141" s="61"/>
-      <c r="AA141" s="61"/>
-      <c r="AB141" s="61"/>
-      <c r="AC141" s="61"/>
-      <c r="AD141" s="61"/>
-      <c r="AI141" s="61"/>
-      <c r="AJ141" s="61"/>
-      <c r="AK141" s="61"/>
-      <c r="AL141" s="61"/>
-      <c r="AM141" s="61"/>
-      <c r="AN141" s="61"/>
-      <c r="AO141" s="61"/>
-      <c r="AP141" s="61"/>
-      <c r="AQ141" s="61"/>
-      <c r="AR141" s="61"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="59"/>
+      <c r="I141" s="58"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="58"/>
+      <c r="L141" s="58"/>
+      <c r="M141" s="58"/>
+      <c r="N141" s="58"/>
+      <c r="O141" s="58"/>
+      <c r="P141" s="58"/>
+      <c r="Q141" s="58"/>
+      <c r="R141" s="58"/>
+      <c r="S141" s="58"/>
+      <c r="T141" s="58"/>
+      <c r="U141" s="58"/>
+      <c r="V141" s="58"/>
+      <c r="W141" s="58"/>
+      <c r="X141" s="58"/>
+      <c r="Y141" s="58"/>
+      <c r="Z141" s="63"/>
+      <c r="AA141" s="58"/>
+      <c r="AB141" s="58"/>
+      <c r="AC141" s="58"/>
+      <c r="AD141" s="58"/>
+      <c r="AI141" s="58"/>
+      <c r="AJ141" s="58"/>
+      <c r="AK141" s="58"/>
+      <c r="AL141" s="58"/>
+      <c r="AM141" s="58"/>
+      <c r="AN141" s="58"/>
+      <c r="AO141" s="58"/>
+      <c r="AP141" s="58"/>
+      <c r="AQ141" s="58"/>
+      <c r="AR141" s="58"/>
     </row>
     <row r="142" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E142" s="60"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="61"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="61"/>
-      <c r="L142" s="61"/>
-      <c r="M142" s="61"/>
-      <c r="N142" s="61"/>
-      <c r="O142" s="61"/>
-      <c r="P142" s="61"/>
-      <c r="Q142" s="61"/>
-      <c r="R142" s="61"/>
-      <c r="S142" s="61"/>
-      <c r="T142" s="61"/>
-      <c r="U142" s="61"/>
-      <c r="V142" s="61"/>
-      <c r="W142" s="61"/>
-      <c r="X142" s="61"/>
-      <c r="Y142" s="61"/>
-      <c r="Z142" s="61"/>
-      <c r="AA142" s="61"/>
-      <c r="AB142" s="61"/>
-      <c r="AC142" s="61"/>
-      <c r="AD142" s="61"/>
-      <c r="AI142" s="61"/>
-      <c r="AJ142" s="61"/>
-      <c r="AK142" s="61"/>
-      <c r="AL142" s="61"/>
-      <c r="AM142" s="61"/>
-      <c r="AN142" s="61"/>
-      <c r="AO142" s="61"/>
-      <c r="AP142" s="61"/>
-      <c r="AQ142" s="61"/>
-      <c r="AR142" s="61"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="59"/>
+      <c r="I142" s="58"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="58"/>
+      <c r="L142" s="58"/>
+      <c r="M142" s="58"/>
+      <c r="N142" s="58"/>
+      <c r="O142" s="58"/>
+      <c r="P142" s="58"/>
+      <c r="Q142" s="58"/>
+      <c r="R142" s="58"/>
+      <c r="S142" s="58"/>
+      <c r="T142" s="58"/>
+      <c r="U142" s="58"/>
+      <c r="V142" s="58"/>
+      <c r="W142" s="58"/>
+      <c r="X142" s="58"/>
+      <c r="Y142" s="58"/>
+      <c r="Z142" s="63"/>
+      <c r="AA142" s="58"/>
+      <c r="AB142" s="58"/>
+      <c r="AC142" s="58"/>
+      <c r="AD142" s="58"/>
+      <c r="AI142" s="58"/>
+      <c r="AJ142" s="58"/>
+      <c r="AK142" s="58"/>
+      <c r="AL142" s="58"/>
+      <c r="AM142" s="58"/>
+      <c r="AN142" s="58"/>
+      <c r="AO142" s="58"/>
+      <c r="AP142" s="58"/>
+      <c r="AQ142" s="58"/>
+      <c r="AR142" s="58"/>
     </row>
     <row r="143" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E143" s="60"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="61"/>
-      <c r="O143" s="61"/>
-      <c r="P143" s="61"/>
-      <c r="Q143" s="61"/>
-      <c r="R143" s="61"/>
-      <c r="S143" s="61"/>
-      <c r="T143" s="61"/>
-      <c r="U143" s="61"/>
-      <c r="V143" s="61"/>
-      <c r="W143" s="61"/>
-      <c r="X143" s="61"/>
-      <c r="Y143" s="61"/>
-      <c r="Z143" s="61"/>
-      <c r="AA143" s="61"/>
-      <c r="AB143" s="61"/>
-      <c r="AC143" s="61"/>
-      <c r="AD143" s="61"/>
-      <c r="AI143" s="61"/>
-      <c r="AJ143" s="61"/>
-      <c r="AK143" s="61"/>
-      <c r="AL143" s="61"/>
-      <c r="AM143" s="61"/>
-      <c r="AN143" s="61"/>
-      <c r="AO143" s="61"/>
-      <c r="AP143" s="61"/>
-      <c r="AQ143" s="61"/>
-      <c r="AR143" s="61"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="59"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="58"/>
+      <c r="N143" s="58"/>
+      <c r="O143" s="58"/>
+      <c r="P143" s="58"/>
+      <c r="Q143" s="58"/>
+      <c r="R143" s="58"/>
+      <c r="S143" s="58"/>
+      <c r="T143" s="58"/>
+      <c r="U143" s="58"/>
+      <c r="V143" s="58"/>
+      <c r="W143" s="58"/>
+      <c r="X143" s="58"/>
+      <c r="Y143" s="58"/>
+      <c r="Z143" s="63"/>
+      <c r="AA143" s="58"/>
+      <c r="AB143" s="58"/>
+      <c r="AC143" s="58"/>
+      <c r="AD143" s="58"/>
+      <c r="AI143" s="58"/>
+      <c r="AJ143" s="58"/>
+      <c r="AK143" s="58"/>
+      <c r="AL143" s="58"/>
+      <c r="AM143" s="58"/>
+      <c r="AN143" s="58"/>
+      <c r="AO143" s="58"/>
+      <c r="AP143" s="58"/>
+      <c r="AQ143" s="58"/>
+      <c r="AR143" s="58"/>
     </row>
     <row r="144" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="E144" s="60"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="61"/>
-      <c r="L144" s="61"/>
-      <c r="M144" s="61"/>
-      <c r="N144" s="61"/>
-      <c r="O144" s="61"/>
-      <c r="P144" s="61"/>
-      <c r="Q144" s="61"/>
-      <c r="R144" s="61"/>
-      <c r="S144" s="61"/>
-      <c r="T144" s="61"/>
-      <c r="U144" s="61"/>
-      <c r="V144" s="61"/>
-      <c r="W144" s="61"/>
-      <c r="X144" s="61"/>
-      <c r="Y144" s="61"/>
-      <c r="Z144" s="61"/>
-      <c r="AA144" s="61"/>
-      <c r="AB144" s="61"/>
-      <c r="AC144" s="61"/>
-      <c r="AD144" s="61"/>
-      <c r="AI144" s="61"/>
-      <c r="AJ144" s="61"/>
-      <c r="AK144" s="61"/>
-      <c r="AL144" s="61"/>
-      <c r="AM144" s="61"/>
-      <c r="AN144" s="61"/>
-      <c r="AO144" s="61"/>
-      <c r="AP144" s="61"/>
-      <c r="AQ144" s="61"/>
-      <c r="AR144" s="61"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="58"/>
+      <c r="K144" s="58"/>
+      <c r="L144" s="58"/>
+      <c r="M144" s="58"/>
+      <c r="N144" s="58"/>
+      <c r="O144" s="58"/>
+      <c r="P144" s="58"/>
+      <c r="Q144" s="58"/>
+      <c r="R144" s="58"/>
+      <c r="S144" s="58"/>
+      <c r="T144" s="58"/>
+      <c r="U144" s="58"/>
+      <c r="V144" s="58"/>
+      <c r="W144" s="58"/>
+      <c r="X144" s="58"/>
+      <c r="Y144" s="58"/>
+      <c r="Z144" s="63"/>
+      <c r="AA144" s="58"/>
+      <c r="AB144" s="58"/>
+      <c r="AC144" s="58"/>
+      <c r="AD144" s="58"/>
+      <c r="AI144" s="58"/>
+      <c r="AJ144" s="58"/>
+      <c r="AK144" s="58"/>
+      <c r="AL144" s="58"/>
+      <c r="AM144" s="58"/>
+      <c r="AN144" s="58"/>
+      <c r="AO144" s="58"/>
+      <c r="AP144" s="58"/>
+      <c r="AQ144" s="58"/>
+      <c r="AR144" s="58"/>
     </row>
     <row r="145" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E145" s="60"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="61"/>
-      <c r="L145" s="61"/>
-      <c r="M145" s="61"/>
-      <c r="N145" s="61"/>
-      <c r="O145" s="61"/>
-      <c r="P145" s="61"/>
-      <c r="Q145" s="61"/>
-      <c r="R145" s="61"/>
-      <c r="S145" s="61"/>
-      <c r="T145" s="61"/>
-      <c r="U145" s="61"/>
-      <c r="V145" s="61"/>
-      <c r="W145" s="61"/>
-      <c r="X145" s="61"/>
-      <c r="Y145" s="61"/>
-      <c r="Z145" s="61"/>
-      <c r="AA145" s="61"/>
-      <c r="AB145" s="61"/>
-      <c r="AC145" s="61"/>
-      <c r="AD145" s="61"/>
-      <c r="AI145" s="61"/>
-      <c r="AJ145" s="61"/>
-      <c r="AK145" s="61"/>
-      <c r="AL145" s="61"/>
-      <c r="AM145" s="61"/>
-      <c r="AN145" s="61"/>
-      <c r="AO145" s="61"/>
-      <c r="AP145" s="61"/>
-      <c r="AQ145" s="61"/>
-      <c r="AR145" s="61"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="58"/>
+      <c r="J145" s="58"/>
+      <c r="K145" s="58"/>
+      <c r="L145" s="58"/>
+      <c r="M145" s="58"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="58"/>
+      <c r="P145" s="58"/>
+      <c r="Q145" s="58"/>
+      <c r="R145" s="58"/>
+      <c r="S145" s="58"/>
+      <c r="T145" s="58"/>
+      <c r="U145" s="58"/>
+      <c r="V145" s="58"/>
+      <c r="W145" s="58"/>
+      <c r="X145" s="58"/>
+      <c r="Y145" s="58"/>
+      <c r="Z145" s="63"/>
+      <c r="AA145" s="58"/>
+      <c r="AB145" s="58"/>
+      <c r="AC145" s="58"/>
+      <c r="AD145" s="58"/>
+      <c r="AI145" s="58"/>
+      <c r="AJ145" s="58"/>
+      <c r="AK145" s="58"/>
+      <c r="AL145" s="58"/>
+      <c r="AM145" s="58"/>
+      <c r="AN145" s="58"/>
+      <c r="AO145" s="58"/>
+      <c r="AP145" s="58"/>
+      <c r="AQ145" s="58"/>
+      <c r="AR145" s="58"/>
     </row>
     <row r="146" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E146" s="60"/>
-      <c r="F146" s="61"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="61"/>
-      <c r="J146" s="61"/>
-      <c r="K146" s="61"/>
-      <c r="L146" s="61"/>
-      <c r="M146" s="61"/>
-      <c r="N146" s="61"/>
-      <c r="O146" s="61"/>
-      <c r="P146" s="61"/>
-      <c r="Q146" s="61"/>
-      <c r="R146" s="61"/>
-      <c r="S146" s="61"/>
-      <c r="T146" s="61"/>
-      <c r="U146" s="61"/>
-      <c r="V146" s="61"/>
-      <c r="W146" s="61"/>
-      <c r="X146" s="61"/>
-      <c r="Y146" s="61"/>
-      <c r="Z146" s="61"/>
-      <c r="AA146" s="61"/>
-      <c r="AB146" s="61"/>
-      <c r="AC146" s="61"/>
-      <c r="AD146" s="61"/>
-      <c r="AI146" s="61"/>
-      <c r="AJ146" s="61"/>
-      <c r="AK146" s="61"/>
-      <c r="AL146" s="61"/>
-      <c r="AM146" s="61"/>
-      <c r="AN146" s="61"/>
-      <c r="AO146" s="61"/>
-      <c r="AP146" s="61"/>
-      <c r="AQ146" s="61"/>
-      <c r="AR146" s="61"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="58"/>
+      <c r="J146" s="58"/>
+      <c r="K146" s="58"/>
+      <c r="L146" s="58"/>
+      <c r="M146" s="58"/>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
+      <c r="P146" s="58"/>
+      <c r="Q146" s="58"/>
+      <c r="R146" s="58"/>
+      <c r="S146" s="58"/>
+      <c r="T146" s="58"/>
+      <c r="U146" s="58"/>
+      <c r="V146" s="58"/>
+      <c r="W146" s="58"/>
+      <c r="X146" s="58"/>
+      <c r="Y146" s="58"/>
+      <c r="Z146" s="63"/>
+      <c r="AA146" s="58"/>
+      <c r="AB146" s="58"/>
+      <c r="AC146" s="58"/>
+      <c r="AD146" s="58"/>
+      <c r="AI146" s="58"/>
+      <c r="AJ146" s="58"/>
+      <c r="AK146" s="58"/>
+      <c r="AL146" s="58"/>
+      <c r="AM146" s="58"/>
+      <c r="AN146" s="58"/>
+      <c r="AO146" s="58"/>
+      <c r="AP146" s="58"/>
+      <c r="AQ146" s="58"/>
+      <c r="AR146" s="58"/>
     </row>
     <row r="147" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E147" s="60"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="61"/>
-      <c r="K147" s="61"/>
-      <c r="L147" s="61"/>
-      <c r="M147" s="61"/>
-      <c r="N147" s="61"/>
-      <c r="O147" s="61"/>
-      <c r="P147" s="61"/>
-      <c r="Q147" s="61"/>
-      <c r="R147" s="61"/>
-      <c r="S147" s="61"/>
-      <c r="T147" s="61"/>
-      <c r="U147" s="61"/>
-      <c r="V147" s="61"/>
-      <c r="W147" s="61"/>
-      <c r="X147" s="61"/>
-      <c r="Y147" s="61"/>
-      <c r="Z147" s="61"/>
-      <c r="AA147" s="61"/>
-      <c r="AB147" s="61"/>
-      <c r="AC147" s="61"/>
-      <c r="AD147" s="61"/>
-      <c r="AI147" s="61"/>
-      <c r="AJ147" s="61"/>
-      <c r="AK147" s="61"/>
-      <c r="AL147" s="61"/>
-      <c r="AM147" s="61"/>
-      <c r="AN147" s="61"/>
-      <c r="AO147" s="61"/>
-      <c r="AP147" s="61"/>
-      <c r="AQ147" s="61"/>
-      <c r="AR147" s="61"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="58"/>
+      <c r="J147" s="58"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="58"/>
+      <c r="M147" s="58"/>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
+      <c r="P147" s="58"/>
+      <c r="Q147" s="58"/>
+      <c r="R147" s="58"/>
+      <c r="S147" s="58"/>
+      <c r="T147" s="58"/>
+      <c r="U147" s="58"/>
+      <c r="V147" s="58"/>
+      <c r="W147" s="58"/>
+      <c r="X147" s="58"/>
+      <c r="Y147" s="58"/>
+      <c r="Z147" s="63"/>
+      <c r="AA147" s="58"/>
+      <c r="AB147" s="58"/>
+      <c r="AC147" s="58"/>
+      <c r="AD147" s="58"/>
+      <c r="AI147" s="58"/>
+      <c r="AJ147" s="58"/>
+      <c r="AK147" s="58"/>
+      <c r="AL147" s="58"/>
+      <c r="AM147" s="58"/>
+      <c r="AN147" s="58"/>
+      <c r="AO147" s="58"/>
+      <c r="AP147" s="58"/>
+      <c r="AQ147" s="58"/>
+      <c r="AR147" s="58"/>
     </row>
     <row r="148" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E148" s="60"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="61"/>
-      <c r="J148" s="61"/>
-      <c r="K148" s="61"/>
-      <c r="L148" s="61"/>
-      <c r="M148" s="61"/>
-      <c r="N148" s="61"/>
-      <c r="O148" s="61"/>
-      <c r="P148" s="61"/>
-      <c r="Q148" s="61"/>
-      <c r="R148" s="61"/>
-      <c r="S148" s="61"/>
-      <c r="T148" s="61"/>
-      <c r="U148" s="61"/>
-      <c r="V148" s="61"/>
-      <c r="W148" s="61"/>
-      <c r="X148" s="61"/>
-      <c r="Y148" s="61"/>
-      <c r="Z148" s="61"/>
-      <c r="AA148" s="61"/>
-      <c r="AB148" s="61"/>
-      <c r="AC148" s="61"/>
-      <c r="AD148" s="61"/>
-      <c r="AI148" s="61"/>
-      <c r="AJ148" s="61"/>
-      <c r="AK148" s="61"/>
-      <c r="AL148" s="61"/>
-      <c r="AM148" s="61"/>
-      <c r="AN148" s="61"/>
-      <c r="AO148" s="61"/>
-      <c r="AP148" s="61"/>
-      <c r="AQ148" s="61"/>
-      <c r="AR148" s="61"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="58"/>
+      <c r="M148" s="58"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
+      <c r="P148" s="58"/>
+      <c r="Q148" s="58"/>
+      <c r="R148" s="58"/>
+      <c r="S148" s="58"/>
+      <c r="T148" s="58"/>
+      <c r="U148" s="58"/>
+      <c r="V148" s="58"/>
+      <c r="W148" s="58"/>
+      <c r="X148" s="58"/>
+      <c r="Y148" s="58"/>
+      <c r="Z148" s="63"/>
+      <c r="AA148" s="58"/>
+      <c r="AB148" s="58"/>
+      <c r="AC148" s="58"/>
+      <c r="AD148" s="58"/>
+      <c r="AI148" s="58"/>
+      <c r="AJ148" s="58"/>
+      <c r="AK148" s="58"/>
+      <c r="AL148" s="58"/>
+      <c r="AM148" s="58"/>
+      <c r="AN148" s="58"/>
+      <c r="AO148" s="58"/>
+      <c r="AP148" s="58"/>
+      <c r="AQ148" s="58"/>
+      <c r="AR148" s="58"/>
     </row>
     <row r="149" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E149" s="60"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="62"/>
-      <c r="I149" s="61"/>
-      <c r="J149" s="61"/>
-      <c r="K149" s="61"/>
-      <c r="L149" s="61"/>
-      <c r="M149" s="61"/>
-      <c r="N149" s="61"/>
-      <c r="O149" s="61"/>
-      <c r="P149" s="61"/>
-      <c r="Q149" s="61"/>
-      <c r="R149" s="61"/>
-      <c r="S149" s="61"/>
-      <c r="T149" s="61"/>
-      <c r="U149" s="61"/>
-      <c r="V149" s="61"/>
-      <c r="W149" s="61"/>
-      <c r="X149" s="61"/>
-      <c r="Y149" s="61"/>
-      <c r="Z149" s="61"/>
-      <c r="AA149" s="61"/>
-      <c r="AB149" s="61"/>
-      <c r="AC149" s="61"/>
-      <c r="AD149" s="61"/>
-      <c r="AI149" s="61"/>
-      <c r="AJ149" s="61"/>
-      <c r="AK149" s="61"/>
-      <c r="AL149" s="61"/>
-      <c r="AM149" s="61"/>
-      <c r="AN149" s="61"/>
-      <c r="AO149" s="61"/>
-      <c r="AP149" s="61"/>
-      <c r="AQ149" s="61"/>
-      <c r="AR149" s="61"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="58"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="59"/>
+      <c r="I149" s="58"/>
+      <c r="J149" s="58"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="58"/>
+      <c r="M149" s="58"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
+      <c r="P149" s="58"/>
+      <c r="Q149" s="58"/>
+      <c r="R149" s="58"/>
+      <c r="S149" s="58"/>
+      <c r="T149" s="58"/>
+      <c r="U149" s="58"/>
+      <c r="V149" s="58"/>
+      <c r="W149" s="58"/>
+      <c r="X149" s="58"/>
+      <c r="Y149" s="58"/>
+      <c r="Z149" s="63"/>
+      <c r="AA149" s="58"/>
+      <c r="AB149" s="58"/>
+      <c r="AC149" s="58"/>
+      <c r="AD149" s="58"/>
+      <c r="AI149" s="58"/>
+      <c r="AJ149" s="58"/>
+      <c r="AK149" s="58"/>
+      <c r="AL149" s="58"/>
+      <c r="AM149" s="58"/>
+      <c r="AN149" s="58"/>
+      <c r="AO149" s="58"/>
+      <c r="AP149" s="58"/>
+      <c r="AQ149" s="58"/>
+      <c r="AR149" s="58"/>
     </row>
     <row r="150" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E150" s="60"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="61"/>
-      <c r="K150" s="61"/>
-      <c r="L150" s="61"/>
-      <c r="M150" s="61"/>
-      <c r="N150" s="61"/>
-      <c r="O150" s="61"/>
-      <c r="P150" s="61"/>
-      <c r="Q150" s="61"/>
-      <c r="R150" s="61"/>
-      <c r="S150" s="61"/>
-      <c r="T150" s="61"/>
-      <c r="U150" s="61"/>
-      <c r="V150" s="61"/>
-      <c r="W150" s="61"/>
-      <c r="X150" s="61"/>
-      <c r="Y150" s="61"/>
-      <c r="Z150" s="61"/>
-      <c r="AA150" s="61"/>
-      <c r="AB150" s="61"/>
-      <c r="AC150" s="61"/>
-      <c r="AD150" s="61"/>
-      <c r="AI150" s="61"/>
-      <c r="AJ150" s="61"/>
-      <c r="AK150" s="61"/>
-      <c r="AL150" s="61"/>
-      <c r="AM150" s="61"/>
-      <c r="AN150" s="61"/>
-      <c r="AO150" s="61"/>
-      <c r="AP150" s="61"/>
-      <c r="AQ150" s="61"/>
-      <c r="AR150" s="61"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="58"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="58"/>
+      <c r="L150" s="58"/>
+      <c r="M150" s="58"/>
+      <c r="N150" s="58"/>
+      <c r="O150" s="58"/>
+      <c r="P150" s="58"/>
+      <c r="Q150" s="58"/>
+      <c r="R150" s="58"/>
+      <c r="S150" s="58"/>
+      <c r="T150" s="58"/>
+      <c r="U150" s="58"/>
+      <c r="V150" s="58"/>
+      <c r="W150" s="58"/>
+      <c r="X150" s="58"/>
+      <c r="Y150" s="58"/>
+      <c r="Z150" s="63"/>
+      <c r="AA150" s="58"/>
+      <c r="AB150" s="58"/>
+      <c r="AC150" s="58"/>
+      <c r="AD150" s="58"/>
+      <c r="AI150" s="58"/>
+      <c r="AJ150" s="58"/>
+      <c r="AK150" s="58"/>
+      <c r="AL150" s="58"/>
+      <c r="AM150" s="58"/>
+      <c r="AN150" s="58"/>
+      <c r="AO150" s="58"/>
+      <c r="AP150" s="58"/>
+      <c r="AQ150" s="58"/>
+      <c r="AR150" s="58"/>
     </row>
     <row r="151" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E151" s="60"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="61"/>
-      <c r="K151" s="61"/>
-      <c r="L151" s="61"/>
-      <c r="M151" s="61"/>
-      <c r="N151" s="61"/>
-      <c r="O151" s="61"/>
-      <c r="P151" s="61"/>
-      <c r="Q151" s="61"/>
-      <c r="R151" s="61"/>
-      <c r="S151" s="61"/>
-      <c r="T151" s="61"/>
-      <c r="U151" s="61"/>
-      <c r="V151" s="61"/>
-      <c r="W151" s="61"/>
-      <c r="X151" s="61"/>
-      <c r="Y151" s="61"/>
-      <c r="Z151" s="61"/>
-      <c r="AA151" s="61"/>
-      <c r="AB151" s="61"/>
-      <c r="AC151" s="61"/>
-      <c r="AD151" s="61"/>
-      <c r="AI151" s="61"/>
-      <c r="AJ151" s="61"/>
-      <c r="AK151" s="61"/>
-      <c r="AL151" s="61"/>
-      <c r="AM151" s="61"/>
-      <c r="AN151" s="61"/>
-      <c r="AO151" s="61"/>
-      <c r="AP151" s="61"/>
-      <c r="AQ151" s="61"/>
-      <c r="AR151" s="61"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58"/>
+      <c r="N151" s="58"/>
+      <c r="O151" s="58"/>
+      <c r="P151" s="58"/>
+      <c r="Q151" s="58"/>
+      <c r="R151" s="58"/>
+      <c r="S151" s="58"/>
+      <c r="T151" s="58"/>
+      <c r="U151" s="58"/>
+      <c r="V151" s="58"/>
+      <c r="W151" s="58"/>
+      <c r="X151" s="58"/>
+      <c r="Y151" s="58"/>
+      <c r="Z151" s="63"/>
+      <c r="AA151" s="58"/>
+      <c r="AB151" s="58"/>
+      <c r="AC151" s="58"/>
+      <c r="AD151" s="58"/>
+      <c r="AI151" s="58"/>
+      <c r="AJ151" s="58"/>
+      <c r="AK151" s="58"/>
+      <c r="AL151" s="58"/>
+      <c r="AM151" s="58"/>
+      <c r="AN151" s="58"/>
+      <c r="AO151" s="58"/>
+      <c r="AP151" s="58"/>
+      <c r="AQ151" s="58"/>
+      <c r="AR151" s="58"/>
     </row>
     <row r="152" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E152" s="60"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="61"/>
-      <c r="J152" s="61"/>
-      <c r="K152" s="61"/>
-      <c r="L152" s="61"/>
-      <c r="M152" s="61"/>
-      <c r="N152" s="61"/>
-      <c r="O152" s="61"/>
-      <c r="P152" s="61"/>
-      <c r="Q152" s="61"/>
-      <c r="R152" s="61"/>
-      <c r="S152" s="61"/>
-      <c r="T152" s="61"/>
-      <c r="U152" s="61"/>
-      <c r="V152" s="61"/>
-      <c r="W152" s="61"/>
-      <c r="X152" s="61"/>
-      <c r="Y152" s="61"/>
-      <c r="Z152" s="61"/>
-      <c r="AA152" s="61"/>
-      <c r="AB152" s="61"/>
-      <c r="AC152" s="61"/>
-      <c r="AD152" s="61"/>
-      <c r="AI152" s="61"/>
-      <c r="AJ152" s="61"/>
-      <c r="AK152" s="61"/>
-      <c r="AL152" s="61"/>
-      <c r="AM152" s="61"/>
-      <c r="AN152" s="61"/>
-      <c r="AO152" s="61"/>
-      <c r="AP152" s="61"/>
-      <c r="AQ152" s="61"/>
-      <c r="AR152" s="61"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="58"/>
+      <c r="J152" s="58"/>
+      <c r="K152" s="58"/>
+      <c r="L152" s="58"/>
+      <c r="M152" s="58"/>
+      <c r="N152" s="58"/>
+      <c r="O152" s="58"/>
+      <c r="P152" s="58"/>
+      <c r="Q152" s="58"/>
+      <c r="R152" s="58"/>
+      <c r="S152" s="58"/>
+      <c r="T152" s="58"/>
+      <c r="U152" s="58"/>
+      <c r="V152" s="58"/>
+      <c r="W152" s="58"/>
+      <c r="X152" s="58"/>
+      <c r="Y152" s="58"/>
+      <c r="Z152" s="63"/>
+      <c r="AA152" s="58"/>
+      <c r="AB152" s="58"/>
+      <c r="AC152" s="58"/>
+      <c r="AD152" s="58"/>
+      <c r="AI152" s="58"/>
+      <c r="AJ152" s="58"/>
+      <c r="AK152" s="58"/>
+      <c r="AL152" s="58"/>
+      <c r="AM152" s="58"/>
+      <c r="AN152" s="58"/>
+      <c r="AO152" s="58"/>
+      <c r="AP152" s="58"/>
+      <c r="AQ152" s="58"/>
+      <c r="AR152" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="MS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="32">
-      <filters>
-        <filter val="Include"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F153:F1048576 F1:F138">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>

--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C80B0-A763-5742-86DE-85FCF6323F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EE970-3AA6-E54C-87B5-D6E19AA38080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -4286,10 +4286,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4477,7 +4478,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4615,7 +4616,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
     </row>
-    <row r="3" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4759,7 +4760,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4903,7 +4904,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5317,7 +5318,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5455,7 +5456,7 @@
       <c r="BA8"/>
       <c r="BB8"/>
     </row>
-    <row r="9" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -5593,7 +5594,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5731,7 +5732,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5853,7 +5854,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5993,7 +5994,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6133,7 +6134,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6273,7 +6274,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6413,7 +6414,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6553,7 +6554,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6693,7 +6694,7 @@
       <c r="BA17"/>
       <c r="BB17"/>
     </row>
-    <row r="18" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6839,7 +6840,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6979,7 +6980,7 @@
       </c>
       <c r="BB19"/>
     </row>
-    <row r="20" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -7119,7 +7120,7 @@
       <c r="BA20"/>
       <c r="BB20"/>
     </row>
-    <row r="21" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="BA21"/>
       <c r="BB21"/>
     </row>
-    <row r="22" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -7409,7 +7410,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -7547,7 +7548,7 @@
       <c r="BA23"/>
       <c r="BB23"/>
     </row>
-    <row r="24" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -7675,7 +7676,7 @@
       <c r="BA24"/>
       <c r="BB24"/>
     </row>
-    <row r="25" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7819,7 +7820,7 @@
       </c>
       <c r="BB25"/>
     </row>
-    <row r="26" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7965,7 +7966,7 @@
       </c>
       <c r="BB26"/>
     </row>
-    <row r="27" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -8109,7 +8110,7 @@
       </c>
       <c r="BB27"/>
     </row>
-    <row r="28" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -8253,7 +8254,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8394,7 +8395,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -8533,7 +8534,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>4</v>
       </c>
@@ -8815,7 +8816,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>5</v>
       </c>
@@ -8952,7 +8953,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -9091,7 +9092,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>7</v>
       </c>
@@ -9230,7 +9231,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>8</v>
       </c>
@@ -9369,7 +9370,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -9508,7 +9509,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>10</v>
       </c>
@@ -9647,7 +9648,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>11</v>
       </c>
@@ -9790,7 +9791,7 @@
       <c r="BB39"/>
       <c r="BC39"/>
     </row>
-    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>12</v>
       </c>
@@ -9921,7 +9922,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>13</v>
       </c>
@@ -10060,7 +10061,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -10199,7 +10200,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>15</v>
       </c>
@@ -10338,7 +10339,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>16</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>17</v>
       </c>
@@ -10618,7 +10619,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -10755,7 +10756,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>19</v>
       </c>
@@ -10894,7 +10895,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>20</v>
       </c>
@@ -11033,7 +11034,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>21</v>
       </c>
@@ -11172,7 +11173,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>22</v>
       </c>
@@ -11311,7 +11312,7 @@
       <c r="BB50"/>
       <c r="BC50"/>
     </row>
-    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>23</v>
       </c>
@@ -11418,7 +11419,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>24</v>
       </c>
@@ -11557,7 +11558,7 @@
       <c r="BB52"/>
       <c r="BC52"/>
     </row>
-    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>25</v>
       </c>
@@ -11702,7 +11703,7 @@
       </c>
       <c r="BC53"/>
     </row>
-    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>26</v>
       </c>
@@ -11845,7 +11846,7 @@
       <c r="BB54"/>
       <c r="BC54"/>
     </row>
-    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -11988,7 +11989,7 @@
       <c r="BB55"/>
       <c r="BC55"/>
     </row>
-    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>28</v>
       </c>
@@ -12216,7 +12217,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>30</v>
       </c>
@@ -12355,7 +12356,7 @@
       <c r="BB58"/>
       <c r="BC58"/>
     </row>
-    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>31</v>
       </c>
@@ -12494,7 +12495,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12633,7 +12634,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12772,7 +12773,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -12911,7 +12912,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>35</v>
       </c>
@@ -13056,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>36</v>
       </c>
@@ -13167,7 +13168,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>37</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>38</v>
       </c>
@@ -13425,7 +13426,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>39</v>
       </c>
@@ -13566,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>40</v>
       </c>
@@ -13709,7 +13710,7 @@
       <c r="BB68"/>
       <c r="BC68"/>
     </row>
-    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>41</v>
       </c>
@@ -13852,7 +13853,7 @@
       <c r="BB69"/>
       <c r="BC69"/>
     </row>
-    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>42</v>
       </c>
@@ -14104,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>44</v>
       </c>
@@ -14245,7 +14246,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>45</v>
       </c>
@@ -14386,7 +14387,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -14527,7 +14528,7 @@
       </c>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>47</v>
       </c>
@@ -14668,7 +14669,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>48</v>
       </c>
@@ -14809,7 +14810,7 @@
       <c r="BB76"/>
       <c r="BC76"/>
     </row>
-    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>49</v>
       </c>
@@ -14922,7 +14923,7 @@
       <c r="BB77"/>
       <c r="BC77"/>
     </row>
-    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>50</v>
       </c>
@@ -15063,7 +15064,7 @@
       <c r="BB78"/>
       <c r="BC78"/>
     </row>
-    <row r="79" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <v>51</v>
       </c>
@@ -15202,7 +15203,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>52</v>
       </c>
@@ -15343,7 +15344,7 @@
       <c r="BB80"/>
       <c r="BC80"/>
     </row>
-    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>53</v>
       </c>
@@ -15446,7 +15447,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>54</v>
       </c>
@@ -15585,7 +15586,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15726,7 +15727,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -15869,7 +15870,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -16010,7 +16011,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -16153,7 +16154,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -16294,7 +16295,7 @@
       <c r="BB87"/>
       <c r="BC87"/>
     </row>
-    <row r="88" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <v>6</v>
       </c>
@@ -16433,7 +16434,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16574,7 +16575,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16717,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -16858,7 +16859,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -17001,7 +17002,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -17142,7 +17143,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -17279,7 +17280,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -17420,7 +17421,7 @@
       <c r="BB95"/>
       <c r="BC95"/>
     </row>
-    <row r="96" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <v>14</v>
       </c>
@@ -17565,7 +17566,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <v>15</v>
       </c>
@@ -17932,7 +17933,7 @@
       </c>
       <c r="BC99"/>
     </row>
-    <row r="100" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>18</v>
       </c>
@@ -18051,7 +18052,7 @@
       </c>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>19</v>
       </c>
@@ -18192,7 +18193,7 @@
       <c r="BB101"/>
       <c r="BC101"/>
     </row>
-    <row r="102" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <v>20</v>
       </c>
@@ -18309,7 +18310,7 @@
       <c r="BB102"/>
       <c r="BC102"/>
     </row>
-    <row r="103" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <v>21</v>
       </c>
@@ -18448,7 +18449,7 @@
       <c r="BB103"/>
       <c r="BC103"/>
     </row>
-    <row r="104" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <v>22</v>
       </c>
@@ -18575,7 +18576,7 @@
       <c r="BB104"/>
       <c r="BC104"/>
     </row>
-    <row r="105" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <v>23</v>
       </c>
@@ -18686,7 +18687,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
     </row>
-    <row r="106" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <v>24</v>
       </c>
@@ -18787,7 +18788,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -18928,7 +18929,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
     </row>
-    <row r="108" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <v>26</v>
       </c>
@@ -19069,7 +19070,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -19210,7 +19211,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
     </row>
-    <row r="110" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <v>28</v>
       </c>
@@ -19355,7 +19356,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -19496,7 +19497,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19639,7 +19640,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -19780,7 +19781,7 @@
       <c r="BB113"/>
       <c r="BC113"/>
     </row>
-    <row r="114" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <v>32</v>
       </c>
@@ -19881,7 +19882,7 @@
       <c r="BB114"/>
       <c r="BC114"/>
     </row>
-    <row r="115" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <v>33</v>
       </c>
@@ -19996,7 +19997,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -20137,7 +20138,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <v>35</v>
       </c>
@@ -20278,7 +20279,7 @@
       <c r="BB117"/>
       <c r="BC117"/>
     </row>
-    <row r="118" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <v>36</v>
       </c>
@@ -20423,7 +20424,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <v>37</v>
       </c>
@@ -20564,7 +20565,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -20945,7 +20946,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -21314,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -22664,7 +22665,21 @@
       <c r="AR152" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}"/>
+  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
+    <filterColumn colId="30">
+      <filters>
+        <filter val="No_Phase_3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="31">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="32">
+      <filters>
+        <filter val="Exclude"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F153:F1048576 F1:F138">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>

--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EE970-3AA6-E54C-87B5-D6E19AA38080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825E4C4-03C4-6F4F-B6E4-DBE548A432B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="1055">
   <si>
     <t>referenceid</t>
   </si>
@@ -3461,6 +3461,9 @@
   </si>
   <si>
     <t>RRMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
 </sst>
 </file>
@@ -4286,11 +4289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:F128"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4302,7 +4304,7 @@
     <col min="6" max="6" width="16.6640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" style="32" customWidth="1"/>
     <col min="8" max="15" width="10.83203125" style="32"/>
-    <col min="16" max="16" width="23" style="32" customWidth="1"/>
+    <col min="16" max="16" width="56.83203125" style="32" customWidth="1"/>
     <col min="17" max="25" width="10.83203125" style="32"/>
     <col min="26" max="26" width="10.83203125" style="42"/>
     <col min="27" max="27" width="16.6640625" style="32" customWidth="1"/>
@@ -4478,7 +4480,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4616,7 +4618,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
     </row>
-    <row r="3" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4760,7 +4762,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4904,7 +4906,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5318,7 +5320,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5456,7 +5458,7 @@
       <c r="BA8"/>
       <c r="BB8"/>
     </row>
-    <row r="9" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -5594,7 +5596,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5732,7 +5734,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5854,7 +5856,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5994,7 +5996,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6134,7 +6136,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6274,7 +6276,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6414,7 +6416,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6554,7 +6556,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6694,7 +6696,7 @@
       <c r="BA17"/>
       <c r="BB17"/>
     </row>
-    <row r="18" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6840,7 +6842,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6980,7 +6982,7 @@
       </c>
       <c r="BB19"/>
     </row>
-    <row r="20" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -7120,7 +7122,7 @@
       <c r="BA20"/>
       <c r="BB20"/>
     </row>
-    <row r="21" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -7266,7 +7268,7 @@
       <c r="BA21"/>
       <c r="BB21"/>
     </row>
-    <row r="22" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -7410,7 +7412,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -7548,7 +7550,7 @@
       <c r="BA23"/>
       <c r="BB23"/>
     </row>
-    <row r="24" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -7676,7 +7678,7 @@
       <c r="BA24"/>
       <c r="BB24"/>
     </row>
-    <row r="25" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7820,7 +7822,7 @@
       </c>
       <c r="BB25"/>
     </row>
-    <row r="26" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7966,7 +7968,7 @@
       </c>
       <c r="BB26"/>
     </row>
-    <row r="27" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -8110,7 +8112,7 @@
       </c>
       <c r="BB27"/>
     </row>
-    <row r="28" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -8254,7 +8256,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8395,7 +8397,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -8534,7 +8536,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -8677,7 +8679,7 @@
       </c>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>4</v>
       </c>
@@ -8816,7 +8818,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>5</v>
       </c>
@@ -8953,7 +8955,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -9092,7 +9094,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>7</v>
       </c>
@@ -9231,7 +9233,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>8</v>
       </c>
@@ -9370,7 +9372,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -9509,7 +9511,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>10</v>
       </c>
@@ -9648,7 +9650,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>11</v>
       </c>
@@ -9791,7 +9793,7 @@
       <c r="BB39"/>
       <c r="BC39"/>
     </row>
-    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>12</v>
       </c>
@@ -9922,7 +9924,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>13</v>
       </c>
@@ -10061,7 +10063,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -10200,7 +10202,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>15</v>
       </c>
@@ -10339,7 +10341,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>16</v>
       </c>
@@ -10478,7 +10480,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>17</v>
       </c>
@@ -10619,7 +10621,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -10756,7 +10758,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>19</v>
       </c>
@@ -10895,7 +10897,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>20</v>
       </c>
@@ -11034,7 +11036,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>21</v>
       </c>
@@ -11173,7 +11175,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>22</v>
       </c>
@@ -11312,7 +11314,7 @@
       <c r="BB50"/>
       <c r="BC50"/>
     </row>
-    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>23</v>
       </c>
@@ -11419,7 +11421,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>24</v>
       </c>
@@ -11558,7 +11560,7 @@
       <c r="BB52"/>
       <c r="BC52"/>
     </row>
-    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>25</v>
       </c>
@@ -11703,7 +11705,7 @@
       </c>
       <c r="BC53"/>
     </row>
-    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>26</v>
       </c>
@@ -11846,7 +11848,7 @@
       <c r="BB54"/>
       <c r="BC54"/>
     </row>
-    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -11989,7 +11991,7 @@
       <c r="BB55"/>
       <c r="BC55"/>
     </row>
-    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>28</v>
       </c>
@@ -12217,7 +12219,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>30</v>
       </c>
@@ -12356,7 +12358,7 @@
       <c r="BB58"/>
       <c r="BC58"/>
     </row>
-    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>31</v>
       </c>
@@ -12433,7 +12435,7 @@
         <v>46</v>
       </c>
       <c r="AD59" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE59" s="14" t="s">
         <v>531</v>
@@ -12495,7 +12497,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12634,7 +12636,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12773,7 +12775,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -12912,7 +12914,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>35</v>
       </c>
@@ -13057,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>36</v>
       </c>
@@ -13168,7 +13170,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>37</v>
       </c>
@@ -13311,7 +13313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>38</v>
       </c>
@@ -13426,7 +13428,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>39</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>40</v>
       </c>
@@ -13710,7 +13712,7 @@
       <c r="BB68"/>
       <c r="BC68"/>
     </row>
-    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>41</v>
       </c>
@@ -13853,7 +13855,7 @@
       <c r="BB69"/>
       <c r="BC69"/>
     </row>
-    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>42</v>
       </c>
@@ -14031,7 +14033,7 @@
       <c r="P71" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q71" s="14" t="s">
+      <c r="Q71" s="60" t="s">
         <v>55</v>
       </c>
       <c r="R71" s="14" t="s">
@@ -14067,7 +14069,7 @@
         <v>37</v>
       </c>
       <c r="AD71" s="14" t="s">
-        <v>37</v>
+        <v>1054</v>
       </c>
       <c r="AE71" s="14" t="s">
         <v>531</v>
@@ -14105,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>44</v>
       </c>
@@ -14246,7 +14248,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>45</v>
       </c>
@@ -14387,7 +14389,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -14528,7 +14530,7 @@
       </c>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>47</v>
       </c>
@@ -14669,7 +14671,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>48</v>
       </c>
@@ -14810,7 +14812,7 @@
       <c r="BB76"/>
       <c r="BC76"/>
     </row>
-    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>49</v>
       </c>
@@ -14923,7 +14925,7 @@
       <c r="BB77"/>
       <c r="BC77"/>
     </row>
-    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>50</v>
       </c>
@@ -15064,7 +15066,7 @@
       <c r="BB78"/>
       <c r="BC78"/>
     </row>
-    <row r="79" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <v>51</v>
       </c>
@@ -15203,7 +15205,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>52</v>
       </c>
@@ -15344,7 +15346,7 @@
       <c r="BB80"/>
       <c r="BC80"/>
     </row>
-    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>53</v>
       </c>
@@ -15447,7 +15449,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>54</v>
       </c>
@@ -15586,7 +15588,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15727,7 +15729,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -15870,7 +15872,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -16011,7 +16013,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -16154,7 +16156,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -16295,7 +16297,7 @@
       <c r="BB87"/>
       <c r="BC87"/>
     </row>
-    <row r="88" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <v>6</v>
       </c>
@@ -16434,7 +16436,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16575,7 +16577,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -16859,7 +16861,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -17002,7 +17004,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -17143,7 +17145,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -17280,7 +17282,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -17421,7 +17423,7 @@
       <c r="BB95"/>
       <c r="BC95"/>
     </row>
-    <row r="96" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <v>14</v>
       </c>
@@ -17566,7 +17568,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <v>15</v>
       </c>
@@ -17933,7 +17935,7 @@
       </c>
       <c r="BC99"/>
     </row>
-    <row r="100" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>18</v>
       </c>
@@ -18012,7 +18014,7 @@
         <v>37</v>
       </c>
       <c r="AD100" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE100" s="14" t="s">
         <v>531</v>
@@ -18052,7 +18054,7 @@
       </c>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>19</v>
       </c>
@@ -18193,7 +18195,7 @@
       <c r="BB101"/>
       <c r="BC101"/>
     </row>
-    <row r="102" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <v>20</v>
       </c>
@@ -18272,7 +18274,7 @@
         <v>46</v>
       </c>
       <c r="AD102" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE102" s="14" t="s">
         <v>531</v>
@@ -18310,7 +18312,7 @@
       <c r="BB102"/>
       <c r="BC102"/>
     </row>
-    <row r="103" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <v>21</v>
       </c>
@@ -18449,7 +18451,7 @@
       <c r="BB103"/>
       <c r="BC103"/>
     </row>
-    <row r="104" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <v>22</v>
       </c>
@@ -18576,7 +18578,7 @@
       <c r="BB104"/>
       <c r="BC104"/>
     </row>
-    <row r="105" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <v>23</v>
       </c>
@@ -18687,7 +18689,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
     </row>
-    <row r="106" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <v>24</v>
       </c>
@@ -18788,7 +18790,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -18929,7 +18931,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
     </row>
-    <row r="108" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <v>26</v>
       </c>
@@ -19070,7 +19072,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -19211,7 +19213,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
     </row>
-    <row r="110" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <v>28</v>
       </c>
@@ -19356,7 +19358,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -19497,7 +19499,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19640,7 +19642,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -19781,7 +19783,7 @@
       <c r="BB113"/>
       <c r="BC113"/>
     </row>
-    <row r="114" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <v>32</v>
       </c>
@@ -19882,7 +19884,7 @@
       <c r="BB114"/>
       <c r="BC114"/>
     </row>
-    <row r="115" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <v>33</v>
       </c>
@@ -19997,7 +19999,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -20138,7 +20140,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <v>35</v>
       </c>
@@ -20279,7 +20281,7 @@
       <c r="BB117"/>
       <c r="BC117"/>
     </row>
-    <row r="118" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <v>36</v>
       </c>
@@ -20424,7 +20426,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <v>37</v>
       </c>
@@ -20565,7 +20567,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -20946,7 +20948,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -21315,7 +21317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -22665,21 +22667,7 @@
       <c r="AR152" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-    <filterColumn colId="30">
-      <filters>
-        <filter val="No_Phase_3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="31">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="32">
-      <filters>
-        <filter val="Exclude"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F153:F1048576 F1:F138">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>

--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613436E0-9B1F-E441-94B2-872840EDE35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78C1C7-31A8-2B4A-8DAE-10C4FF090DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12960" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
@@ -3457,9 +3457,6 @@
     <t>cognition</t>
   </si>
   <si>
-    <t>PMS</t>
-  </si>
-  <si>
     <t>RRMS</t>
   </si>
   <si>
@@ -3467,6 +3464,9 @@
   </si>
   <si>
     <t>300 mg is primary</t>
+  </si>
+  <si>
+    <t>PPMS or SPMS </t>
   </si>
 </sst>
 </file>
@@ -4271,11 +4271,11 @@
   <dimension ref="A1:BC152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O79" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="R58" sqref="R58"/>
+      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4593,7 +4593,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
     </row>
-    <row r="3" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="BA8"/>
       <c r="BB8"/>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="BA24"/>
       <c r="BB24"/>
     </row>
-    <row r="25" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>5</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>7</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>8</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>9</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>10</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>11</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>13</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>14</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>15</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>39</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V43" s="53" t="s">
         <v>58</v>
@@ -10316,7 +10316,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>16</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>17</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>19</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>20</v>
       </c>
@@ -11011,7 +11011,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>21</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>22</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>24</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>30</v>
       </c>
@@ -12889,7 +12889,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>35</v>
       </c>
@@ -13145,7 +13145,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>37</v>
       </c>
@@ -13403,7 +13403,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>39</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>37</v>
       </c>
       <c r="AD71" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AE71" s="8" t="s">
         <v>531</v>
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>44</v>
       </c>
@@ -14223,7 +14223,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>45</v>
       </c>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>47</v>
       </c>
@@ -14646,7 +14646,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>48</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>33</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="P79" s="8" t="s">
         <v>490</v>
@@ -15424,7 +15424,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>54</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>15</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>19</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>33</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="P101" s="8" t="s">
         <v>783</v>
@@ -18325,7 +18325,7 @@
         <v>33</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="P103" s="8" t="s">
         <v>797</v>
@@ -18464,7 +18464,7 @@
         <v>33</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="P104" s="8" t="s">
         <v>804</v>
@@ -20115,7 +20115,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>35</v>
       </c>
@@ -20401,7 +20401,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>37</v>
       </c>
@@ -22613,15 +22613,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-    <filterColumn colId="21">
+    <filterColumn colId="14">
       <filters>
-        <filter val="Negative"/>
-        <filter val="Positive"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="32">
-      <filters>
-        <filter val="Include"/>
+        <filter val="PMS"/>
+        <filter val="RRMS"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78C1C7-31A8-2B4A-8DAE-10C4FF090DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC9AB20-8E63-744A-A373-C173EF21C14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12960" windowHeight="16480" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="12960" windowHeight="16440" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -3779,7 +3779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3911,17 +3911,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4271,11 +4263,11 @@
   <dimension ref="A1:BC152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Q79" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
+      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4278,6 @@
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="56.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="55"/>
     <col min="27" max="27" width="16.6640625" customWidth="1"/>
     <col min="32" max="32" width="13.33203125" customWidth="1"/>
     <col min="34" max="34" width="33.6640625" customWidth="1"/>
@@ -4653,7 +4644,7 @@
       <c r="U3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="5" t="s">
         <v>58</v>
       </c>
       <c r="W3" s="5" t="s">
@@ -5489,7 +5480,7 @@
       <c r="U9" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W9" s="8" t="s">
@@ -6873,7 +6864,7 @@
       <c r="U19" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V19" s="53" t="s">
+      <c r="V19" s="8" t="s">
         <v>197</v>
       </c>
       <c r="W19" s="8" t="s">
@@ -7711,7 +7702,7 @@
       <c r="U25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="53" t="s">
+      <c r="V25" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W25" s="8" t="s">
@@ -8428,7 +8419,7 @@
       <c r="U30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V30" s="53" t="s">
+      <c r="V30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="W30" s="8" t="s">
@@ -8710,7 +8701,7 @@
       <c r="U32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="53" t="s">
+      <c r="V32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="W32" s="8" t="s">
@@ -8847,7 +8838,7 @@
       <c r="U33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V33" s="53" t="s">
+      <c r="V33" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W33" s="8" t="s">
@@ -9125,7 +9116,7 @@
       <c r="U35" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="V35" s="53" t="s">
+      <c r="V35" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W35" s="8" t="s">
@@ -9264,7 +9255,7 @@
       <c r="U36" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="V36" s="53" t="s">
+      <c r="V36" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W36" s="8" t="s">
@@ -9403,7 +9394,7 @@
       <c r="U37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V37" s="53" t="s">
+      <c r="V37" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W37" s="8" t="s">
@@ -9542,7 +9533,7 @@
       <c r="U38" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="V38" s="53" t="s">
+      <c r="V38" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W38" s="8" t="s">
@@ -9681,7 +9672,7 @@
       <c r="U39" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="V39" s="53" t="s">
+      <c r="V39" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W39" s="8" t="s">
@@ -9955,7 +9946,7 @@
       <c r="U41" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="V41" s="53" t="s">
+      <c r="V41" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W41" s="8" t="s">
@@ -10094,7 +10085,7 @@
       <c r="U42" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="V42" s="53" t="s">
+      <c r="V42" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W42" s="8" t="s">
@@ -10233,7 +10224,7 @@
       <c r="U43" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="V43" s="53" t="s">
+      <c r="V43" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W43" s="8" t="s">
@@ -10372,7 +10363,7 @@
       <c r="U44" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="V44" s="53" t="s">
+      <c r="V44" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W44" s="8" t="s">
@@ -10511,7 +10502,7 @@
       <c r="U45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V45" s="53" t="s">
+      <c r="V45" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W45" s="8" t="s">
@@ -10789,7 +10780,7 @@
       <c r="U47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V47" s="53" t="s">
+      <c r="V47" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W47" s="8" t="s">
@@ -10928,7 +10919,7 @@
       <c r="U48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V48" s="53" t="s">
+      <c r="V48" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W48" s="8" t="s">
@@ -11067,7 +11058,7 @@
       <c r="U49" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="V49" s="53" t="s">
+      <c r="V49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W49" s="8" t="s">
@@ -11206,7 +11197,7 @@
       <c r="U50" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="V50" s="53" t="s">
+      <c r="V50" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W50" s="8" t="s">
@@ -11452,7 +11443,7 @@
       <c r="U52" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V52" s="53" t="s">
+      <c r="V52" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W52" s="8" t="s">
@@ -12250,7 +12241,7 @@
       <c r="U58" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="V58" s="53" t="s">
+      <c r="V58" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W58" s="8" t="s">
@@ -12945,7 +12936,7 @@
       <c r="U63" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="V63" s="53" t="s">
+      <c r="V63" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W63" s="8" t="s">
@@ -13203,7 +13194,7 @@
       <c r="U65" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="V65" s="53" t="s">
+      <c r="V65" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W65" s="8" t="s">
@@ -13459,7 +13450,7 @@
       <c r="U67" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="V67" s="53" t="s">
+      <c r="V67" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W67" s="8" t="s">
@@ -14138,7 +14129,7 @@
       <c r="U72" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="V72" s="53" t="s">
+      <c r="V72" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W72" s="8" t="s">
@@ -14279,7 +14270,7 @@
       <c r="U73" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="V73" s="53" t="s">
+      <c r="V73" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W73" s="8" t="s">
@@ -14561,7 +14552,7 @@
       <c r="U75" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V75" s="53" t="s">
+      <c r="V75" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W75" s="8" t="s">
@@ -14702,7 +14693,7 @@
       <c r="U76" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="V76" s="53" t="s">
+      <c r="V76" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W76" s="8" t="s">
@@ -15097,7 +15088,7 @@
       <c r="U79" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V79" s="53" t="s">
+      <c r="V79" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W79" s="8" t="s">
@@ -15480,7 +15471,7 @@
       <c r="U82" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="V82" s="53" t="s">
+      <c r="V82" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W82" s="8" t="s">
@@ -17601,7 +17592,7 @@
       <c r="U97" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V97" s="53" t="s">
+      <c r="V97" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W97" s="8" t="s">
@@ -18345,7 +18336,7 @@
       <c r="U103" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="V103" s="53" t="s">
+      <c r="V103" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W103" s="8" t="s">
@@ -18484,7 +18475,7 @@
       <c r="U104" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="V104" s="53" t="s">
+      <c r="V104" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W104" s="8" t="s">
@@ -20173,7 +20164,7 @@
       <c r="U117" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="V117" s="53" t="s">
+      <c r="V117" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W117" s="8" t="s">
@@ -20459,7 +20450,7 @@
       <c r="U119" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="V119" s="53" t="s">
+      <c r="V119" s="8" t="s">
         <v>58</v>
       </c>
       <c r="W119" s="8" t="s">
@@ -21678,7 +21669,7 @@
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="44"/>
-      <c r="V129" s="54"/>
+      <c r="V129" s="44"/>
       <c r="W129" s="44"/>
       <c r="X129" s="44"/>
       <c r="Y129" s="44"/>
@@ -21722,7 +21713,7 @@
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="44"/>
-      <c r="V130" s="54"/>
+      <c r="V130" s="44"/>
       <c r="W130" s="44"/>
       <c r="X130" s="44"/>
       <c r="Y130" s="44"/>
@@ -21766,7 +21757,7 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="44"/>
-      <c r="V131" s="54"/>
+      <c r="V131" s="44"/>
       <c r="W131" s="44"/>
       <c r="X131" s="44"/>
       <c r="Y131" s="44"/>
@@ -21810,7 +21801,7 @@
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="44"/>
-      <c r="V132" s="54"/>
+      <c r="V132" s="44"/>
       <c r="W132" s="44"/>
       <c r="X132" s="44"/>
       <c r="Y132" s="44"/>
@@ -21854,7 +21845,7 @@
       <c r="S133" s="44"/>
       <c r="T133" s="44"/>
       <c r="U133" s="44"/>
-      <c r="V133" s="54"/>
+      <c r="V133" s="44"/>
       <c r="W133" s="44"/>
       <c r="X133" s="44"/>
       <c r="Y133" s="44"/>
@@ -21898,7 +21889,7 @@
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
       <c r="U134" s="44"/>
-      <c r="V134" s="54"/>
+      <c r="V134" s="44"/>
       <c r="W134" s="44"/>
       <c r="X134" s="44"/>
       <c r="Y134" s="44"/>
@@ -21942,7 +21933,7 @@
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
       <c r="U135" s="44"/>
-      <c r="V135" s="54"/>
+      <c r="V135" s="44"/>
       <c r="W135" s="44"/>
       <c r="X135" s="44"/>
       <c r="Y135" s="44"/>
@@ -21986,7 +21977,7 @@
       <c r="S136" s="44"/>
       <c r="T136" s="44"/>
       <c r="U136" s="44"/>
-      <c r="V136" s="54"/>
+      <c r="V136" s="44"/>
       <c r="W136" s="44"/>
       <c r="X136" s="44"/>
       <c r="Y136" s="44"/>
@@ -22030,7 +22021,7 @@
       <c r="S137" s="44"/>
       <c r="T137" s="44"/>
       <c r="U137" s="44"/>
-      <c r="V137" s="54"/>
+      <c r="V137" s="44"/>
       <c r="W137" s="44"/>
       <c r="X137" s="44"/>
       <c r="Y137" s="44"/>
@@ -22074,7 +22065,7 @@
       <c r="S138" s="44"/>
       <c r="T138" s="44"/>
       <c r="U138" s="44"/>
-      <c r="V138" s="54"/>
+      <c r="V138" s="44"/>
       <c r="W138" s="44"/>
       <c r="X138" s="44"/>
       <c r="Y138" s="44"/>
@@ -22117,7 +22108,7 @@
       <c r="S139" s="44"/>
       <c r="T139" s="44"/>
       <c r="U139" s="44"/>
-      <c r="V139" s="54"/>
+      <c r="V139" s="44"/>
       <c r="W139" s="44"/>
       <c r="X139" s="44"/>
       <c r="Y139" s="44"/>
@@ -22145,7 +22136,7 @@
       <c r="S140" s="44"/>
       <c r="T140" s="44"/>
       <c r="U140" s="44"/>
-      <c r="V140" s="54"/>
+      <c r="V140" s="44"/>
       <c r="W140" s="44"/>
       <c r="X140" s="44"/>
       <c r="Y140" s="44"/>
@@ -22173,7 +22164,7 @@
       <c r="S141" s="44"/>
       <c r="T141" s="44"/>
       <c r="U141" s="44"/>
-      <c r="V141" s="54"/>
+      <c r="V141" s="44"/>
       <c r="W141" s="44"/>
       <c r="X141" s="44"/>
       <c r="Y141" s="44"/>
@@ -22211,7 +22202,7 @@
       <c r="S142" s="44"/>
       <c r="T142" s="44"/>
       <c r="U142" s="44"/>
-      <c r="V142" s="54"/>
+      <c r="V142" s="44"/>
       <c r="W142" s="44"/>
       <c r="X142" s="44"/>
       <c r="Y142" s="44"/>
@@ -22249,7 +22240,7 @@
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
       <c r="U143" s="44"/>
-      <c r="V143" s="54"/>
+      <c r="V143" s="44"/>
       <c r="W143" s="44"/>
       <c r="X143" s="44"/>
       <c r="Y143" s="44"/>
@@ -22287,7 +22278,7 @@
       <c r="S144" s="44"/>
       <c r="T144" s="44"/>
       <c r="U144" s="44"/>
-      <c r="V144" s="54"/>
+      <c r="V144" s="44"/>
       <c r="W144" s="44"/>
       <c r="X144" s="44"/>
       <c r="Y144" s="44"/>
@@ -22325,7 +22316,7 @@
       <c r="S145" s="44"/>
       <c r="T145" s="44"/>
       <c r="U145" s="44"/>
-      <c r="V145" s="54"/>
+      <c r="V145" s="44"/>
       <c r="W145" s="44"/>
       <c r="X145" s="44"/>
       <c r="Y145" s="44"/>
@@ -22363,7 +22354,7 @@
       <c r="S146" s="44"/>
       <c r="T146" s="44"/>
       <c r="U146" s="44"/>
-      <c r="V146" s="54"/>
+      <c r="V146" s="44"/>
       <c r="W146" s="44"/>
       <c r="X146" s="44"/>
       <c r="Y146" s="44"/>
@@ -22401,7 +22392,7 @@
       <c r="S147" s="44"/>
       <c r="T147" s="44"/>
       <c r="U147" s="44"/>
-      <c r="V147" s="54"/>
+      <c r="V147" s="44"/>
       <c r="W147" s="44"/>
       <c r="X147" s="44"/>
       <c r="Y147" s="44"/>
@@ -22439,7 +22430,7 @@
       <c r="S148" s="44"/>
       <c r="T148" s="44"/>
       <c r="U148" s="44"/>
-      <c r="V148" s="54"/>
+      <c r="V148" s="44"/>
       <c r="W148" s="44"/>
       <c r="X148" s="44"/>
       <c r="Y148" s="44"/>
@@ -22477,7 +22468,7 @@
       <c r="S149" s="44"/>
       <c r="T149" s="44"/>
       <c r="U149" s="44"/>
-      <c r="V149" s="54"/>
+      <c r="V149" s="44"/>
       <c r="W149" s="44"/>
       <c r="X149" s="44"/>
       <c r="Y149" s="44"/>
@@ -22515,7 +22506,7 @@
       <c r="S150" s="44"/>
       <c r="T150" s="44"/>
       <c r="U150" s="44"/>
-      <c r="V150" s="54"/>
+      <c r="V150" s="44"/>
       <c r="W150" s="44"/>
       <c r="X150" s="44"/>
       <c r="Y150" s="44"/>
@@ -22553,7 +22544,7 @@
       <c r="S151" s="44"/>
       <c r="T151" s="44"/>
       <c r="U151" s="44"/>
-      <c r="V151" s="54"/>
+      <c r="V151" s="44"/>
       <c r="W151" s="44"/>
       <c r="X151" s="44"/>
       <c r="Y151" s="44"/>
@@ -22591,7 +22582,7 @@
       <c r="S152" s="44"/>
       <c r="T152" s="44"/>
       <c r="U152" s="44"/>
-      <c r="V152" s="54"/>
+      <c r="V152" s="44"/>
       <c r="W152" s="44"/>
       <c r="X152" s="44"/>
       <c r="Y152" s="44"/>

--- a/consort/includes and excludes that were done.xlsx
+++ b/consort/includes and excludes that were done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC9AB20-8E63-744A-A373-C173EF21C14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E72ED6-BD6E-4646-B0B9-0BFEDA6AC529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="12960" windowHeight="16440" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="24460" windowHeight="16440" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -3779,7 +3779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3905,15 +3905,20 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4263,11 +4268,11 @@
   <dimension ref="A1:BC152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
+      <selection pane="bottomRight" activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4278,6 +4283,7 @@
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="56.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="54"/>
     <col min="27" max="27" width="16.6640625" customWidth="1"/>
     <col min="32" max="32" width="13.33203125" customWidth="1"/>
     <col min="34" max="34" width="33.6640625" customWidth="1"/>
@@ -4345,7 +4351,7 @@
       <c r="U1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="17" t="s">
@@ -4446,7 +4452,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4502,7 +4508,7 @@
       <c r="U2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="50" t="s">
         <v>41</v>
       </c>
       <c r="W2" s="15" t="s">
@@ -4584,7 +4590,7 @@
       <c r="BA2"/>
       <c r="BB2"/>
     </row>
-    <row r="3" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4644,7 +4650,7 @@
       <c r="U3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="51" t="s">
         <v>58</v>
       </c>
       <c r="W3" s="5" t="s">
@@ -4728,7 +4734,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -4788,7 +4794,7 @@
       <c r="U4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W4" s="8" t="s">
@@ -4872,7 +4878,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -4926,7 +4932,7 @@
       <c r="U5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W5" s="8" t="s">
@@ -5014,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5068,7 +5074,7 @@
       <c r="U6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="46" t="s">
+      <c r="V6" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W6" s="8" t="s">
@@ -5148,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5204,7 +5210,7 @@
       <c r="U7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W7" s="8" t="s">
@@ -5286,7 +5292,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="U8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="46" t="s">
+      <c r="V8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W8" s="8" t="s">
@@ -5424,7 +5430,7 @@
       <c r="BA8"/>
       <c r="BB8"/>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5480,7 +5486,7 @@
       <c r="U9" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W9" s="8" t="s">
@@ -5562,7 +5568,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5618,7 +5624,7 @@
       <c r="U10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="V10" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W10" s="8" t="s">
@@ -5700,7 +5706,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="U11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="V11" s="46" t="s">
+      <c r="V11" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W11" s="8" t="s">
@@ -5822,7 +5828,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5880,7 +5886,7 @@
       <c r="U12" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="V12" s="46" t="s">
+      <c r="V12" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W12" s="8" t="s">
@@ -5962,7 +5968,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -6018,7 +6024,7 @@
       <c r="U13" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W13" s="8" t="s">
@@ -6102,7 +6108,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -6158,7 +6164,7 @@
       <c r="U14" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="V14" s="46" t="s">
+      <c r="V14" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W14" s="8" t="s">
@@ -6242,7 +6248,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -6300,7 +6306,7 @@
       <c r="U15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="V15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="8" t="s">
@@ -6382,7 +6388,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -6440,7 +6446,7 @@
       <c r="U16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="46" t="s">
+      <c r="V16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W16" s="8" t="s">
@@ -6522,7 +6528,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -6580,7 +6586,7 @@
       <c r="U17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="V17" s="46" t="s">
+      <c r="V17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W17" s="8" t="s">
@@ -6720,7 +6726,7 @@
       <c r="U18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V18" s="46" t="s">
+      <c r="V18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W18" s="8" t="s">
@@ -6808,7 +6814,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -6864,7 +6870,7 @@
       <c r="U19" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V19" s="8" t="s">
+      <c r="V19" s="52" t="s">
         <v>197</v>
       </c>
       <c r="W19" s="8" t="s">
@@ -7004,7 +7010,7 @@
       <c r="U20" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="V20" s="46" t="s">
+      <c r="V20" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W20" s="8" t="s">
@@ -7144,7 +7150,7 @@
       <c r="U21" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="V21" s="46" t="s">
+      <c r="V21" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W21" s="8" t="s">
@@ -7292,7 +7298,7 @@
       <c r="U22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V22" s="46" t="s">
+      <c r="V22" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="8" t="s">
@@ -7378,7 +7384,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -7434,7 +7440,7 @@
       <c r="U23" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="V23" s="46" t="s">
+      <c r="V23" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W23" s="8" t="s">
@@ -7572,7 +7578,7 @@
       <c r="U24" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="V24" s="46" t="s">
+      <c r="V24" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W24" s="8" t="s">
@@ -7644,7 +7650,7 @@
       <c r="BA24"/>
       <c r="BB24"/>
     </row>
-    <row r="25" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -7702,7 +7708,7 @@
       <c r="U25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="V25" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W25" s="8" t="s">
@@ -7848,7 +7854,7 @@
       <c r="U26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="V26" s="46" t="s">
+      <c r="V26" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W26" s="8" t="s">
@@ -7992,7 +7998,7 @@
       <c r="U27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="46" t="s">
+      <c r="V27" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W27" s="8" t="s">
@@ -8136,7 +8142,7 @@
       <c r="U28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="V28" s="46" t="s">
+      <c r="V28" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W28" s="8" t="s">
@@ -8222,7 +8228,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="2" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>1</v>
       </c>
@@ -8280,7 +8286,7 @@
       <c r="U29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="50" t="s">
+      <c r="V29" s="51" t="s">
         <v>41</v>
       </c>
       <c r="W29" s="5" t="s">
@@ -8363,7 +8369,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>2</v>
       </c>
@@ -8419,7 +8425,7 @@
       <c r="U30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V30" s="8" t="s">
+      <c r="V30" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W30" s="8" t="s">
@@ -8502,7 +8508,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>3</v>
       </c>
@@ -8558,7 +8564,7 @@
       <c r="U31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V31" s="46" t="s">
+      <c r="V31" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W31" s="8" t="s">
@@ -8645,7 +8651,7 @@
       </c>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -8701,7 +8707,7 @@
       <c r="U32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W32" s="8" t="s">
@@ -8784,7 +8790,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>5</v>
       </c>
@@ -8838,7 +8844,7 @@
       <c r="U33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V33" s="8" t="s">
+      <c r="V33" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W33" s="8" t="s">
@@ -8921,7 +8927,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>6</v>
       </c>
@@ -8977,7 +8983,7 @@
       <c r="U34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V34" s="46" t="s">
+      <c r="V34" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W34" s="8" t="s">
@@ -9060,7 +9066,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>7</v>
       </c>
@@ -9116,7 +9122,7 @@
       <c r="U35" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="V35" s="8" t="s">
+      <c r="V35" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W35" s="8" t="s">
@@ -9199,7 +9205,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>8</v>
       </c>
@@ -9255,7 +9261,7 @@
       <c r="U36" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="V36" s="8" t="s">
+      <c r="V36" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W36" s="8" t="s">
@@ -9338,7 +9344,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>9</v>
       </c>
@@ -9394,7 +9400,7 @@
       <c r="U37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V37" s="8" t="s">
+      <c r="V37" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W37" s="8" t="s">
@@ -9477,7 +9483,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>10</v>
       </c>
@@ -9533,7 +9539,7 @@
       <c r="U38" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="V38" s="8" t="s">
+      <c r="V38" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W38" s="8" t="s">
@@ -9616,7 +9622,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>11</v>
       </c>
@@ -9672,7 +9678,7 @@
       <c r="U39" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="V39" s="8" t="s">
+      <c r="V39" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W39" s="8" t="s">
@@ -9813,7 +9819,7 @@
       <c r="U40" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="V40" s="46" t="s">
+      <c r="V40" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W40" s="8" t="s">
@@ -9890,7 +9896,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>13</v>
       </c>
@@ -9946,7 +9952,7 @@
       <c r="U41" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="V41" s="8" t="s">
+      <c r="V41" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W41" s="8" t="s">
@@ -10029,7 +10035,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>14</v>
       </c>
@@ -10085,7 +10091,7 @@
       <c r="U42" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="V42" s="8" t="s">
+      <c r="V42" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W42" s="8" t="s">
@@ -10168,7 +10174,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>15</v>
       </c>
@@ -10224,7 +10230,7 @@
       <c r="U43" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="V43" s="8" t="s">
+      <c r="V43" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W43" s="8" t="s">
@@ -10307,7 +10313,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>16</v>
       </c>
@@ -10363,7 +10369,7 @@
       <c r="U44" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="V44" s="8" t="s">
+      <c r="V44" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W44" s="8" t="s">
@@ -10446,7 +10452,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>17</v>
       </c>
@@ -10502,7 +10508,7 @@
       <c r="U45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V45" s="8" t="s">
+      <c r="V45" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W45" s="8" t="s">
@@ -10587,7 +10593,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>18</v>
       </c>
@@ -10643,7 +10649,7 @@
       <c r="U46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V46" s="46" t="s">
+      <c r="V46" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W46" s="8" t="s">
@@ -10724,7 +10730,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>19</v>
       </c>
@@ -10780,7 +10786,7 @@
       <c r="U47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V47" s="8" t="s">
+      <c r="V47" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W47" s="8" t="s">
@@ -10863,7 +10869,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>20</v>
       </c>
@@ -10919,7 +10925,7 @@
       <c r="U48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V48" s="8" t="s">
+      <c r="V48" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W48" s="8" t="s">
@@ -11002,7 +11008,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>21</v>
       </c>
@@ -11058,7 +11064,7 @@
       <c r="U49" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="V49" s="8" t="s">
+      <c r="V49" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W49" s="8" t="s">
@@ -11141,7 +11147,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>22</v>
       </c>
@@ -11197,7 +11203,7 @@
       <c r="U50" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="V50" s="8" t="s">
+      <c r="V50" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W50" s="8" t="s">
@@ -11334,7 +11340,7 @@
       <c r="U51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="46"/>
+      <c r="V51" s="52"/>
       <c r="W51" s="8" t="s">
         <v>37</v>
       </c>
@@ -11387,7 +11393,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>24</v>
       </c>
@@ -11443,7 +11449,7 @@
       <c r="U52" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V52" s="8" t="s">
+      <c r="V52" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W52" s="8" t="s">
@@ -11584,7 +11590,7 @@
       <c r="U53" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V53" s="46" t="s">
+      <c r="V53" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W53" s="8" t="s">
@@ -11727,7 +11733,7 @@
       <c r="U54" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V54" s="46" t="s">
+      <c r="V54" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W54" s="8" t="s">
@@ -11870,7 +11876,7 @@
       <c r="U55" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V55" s="46" t="s">
+      <c r="V55" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W55" s="8" t="s">
@@ -12013,7 +12019,7 @@
       <c r="U56" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V56" s="46" t="s">
+      <c r="V56" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W56" s="8" t="s">
@@ -12128,7 +12134,7 @@
       <c r="U57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V57" s="46" t="s">
+      <c r="V57" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W57" s="8" t="s">
@@ -12185,7 +12191,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>30</v>
       </c>
@@ -12241,7 +12247,7 @@
       <c r="U58" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="V58" s="8" t="s">
+      <c r="V58" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W58" s="8" t="s">
@@ -12380,7 +12386,7 @@
       <c r="U59" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V59" s="46" t="s">
+      <c r="V59" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W59" s="8" t="s">
@@ -12463,7 +12469,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>32</v>
       </c>
@@ -12519,7 +12525,7 @@
       <c r="U60" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V60" s="46" t="s">
+      <c r="V60" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W60" s="8" t="s">
@@ -12602,7 +12608,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>33</v>
       </c>
@@ -12658,7 +12664,7 @@
       <c r="U61" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V61" s="46" t="s">
+      <c r="V61" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W61" s="8" t="s">
@@ -12741,7 +12747,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>34</v>
       </c>
@@ -12797,7 +12803,7 @@
       <c r="U62" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V62" s="46" t="s">
+      <c r="V62" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W62" s="8" t="s">
@@ -12880,7 +12886,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>35</v>
       </c>
@@ -12936,7 +12942,7 @@
       <c r="U63" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="V63" s="8" t="s">
+      <c r="V63" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W63" s="8" t="s">
@@ -13079,7 +13085,7 @@
       <c r="U64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V64" s="46" t="s">
+      <c r="V64" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W64" s="8" t="s">
@@ -13136,7 +13142,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>37</v>
       </c>
@@ -13194,7 +13200,7 @@
       <c r="U65" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="V65" s="8" t="s">
+      <c r="V65" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W65" s="8" t="s">
@@ -13335,7 +13341,7 @@
       <c r="U66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V66" s="46" t="s">
+      <c r="V66" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W66" s="8" t="s">
@@ -13394,7 +13400,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>39</v>
       </c>
@@ -13450,7 +13456,7 @@
       <c r="U67" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="V67" s="8" t="s">
+      <c r="V67" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W67" s="8" t="s">
@@ -13593,7 +13599,7 @@
       <c r="U68" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="V68" s="46" t="s">
+      <c r="V68" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W68" s="8" t="s">
@@ -13734,7 +13740,7 @@
       <c r="U69" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V69" s="46" t="s">
+      <c r="V69" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W69" s="8" t="s">
@@ -13875,7 +13881,7 @@
       <c r="U70" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="V70" s="46" t="s">
+      <c r="V70" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W70" s="8" t="s">
@@ -14014,7 +14020,7 @@
       <c r="U71" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V71" s="46" t="s">
+      <c r="V71" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W71" s="8" t="s">
@@ -14073,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>44</v>
       </c>
@@ -14129,7 +14135,7 @@
       <c r="U72" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="V72" s="8" t="s">
+      <c r="V72" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W72" s="8" t="s">
@@ -14214,7 +14220,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>45</v>
       </c>
@@ -14270,7 +14276,7 @@
       <c r="U73" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="V73" s="8" t="s">
+      <c r="V73" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W73" s="8" t="s">
@@ -14355,7 +14361,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>46</v>
       </c>
@@ -14411,7 +14417,7 @@
       <c r="U74" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V74" s="46" t="s">
+      <c r="V74" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W74" s="8" t="s">
@@ -14496,7 +14502,7 @@
       </c>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>47</v>
       </c>
@@ -14552,7 +14558,7 @@
       <c r="U75" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V75" s="8" t="s">
+      <c r="V75" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W75" s="8" t="s">
@@ -14637,7 +14643,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>48</v>
       </c>
@@ -14693,7 +14699,7 @@
       <c r="U76" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="V76" s="8" t="s">
+      <c r="V76" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W76" s="8" t="s">
@@ -14832,7 +14838,7 @@
       <c r="U77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V77" s="46" t="s">
+      <c r="V77" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W77" s="8" t="s">
@@ -14947,7 +14953,7 @@
       <c r="U78" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V78" s="46" t="s">
+      <c r="V78" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W78" s="8" t="s">
@@ -15088,7 +15094,7 @@
       <c r="U79" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V79" s="8" t="s">
+      <c r="V79" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W79" s="8" t="s">
@@ -15171,7 +15177,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>52</v>
       </c>
@@ -15229,7 +15235,7 @@
       <c r="U80" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V80" s="46" t="s">
+      <c r="V80" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W80" s="8" t="s">
@@ -15366,7 +15372,7 @@
       <c r="U81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V81" s="46"/>
+      <c r="V81" s="52"/>
       <c r="W81" s="8" t="s">
         <v>42</v>
       </c>
@@ -15415,7 +15421,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" s="2" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>54</v>
       </c>
@@ -15471,7 +15477,7 @@
       <c r="U82" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="V82" s="8" t="s">
+      <c r="V82" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W82" s="8" t="s">
@@ -15554,7 +15560,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>1</v>
       </c>
@@ -15612,7 +15618,7 @@
       <c r="U83" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="V83" s="50" t="s">
+      <c r="V83" s="51" t="s">
         <v>41</v>
       </c>
       <c r="W83" s="5" t="s">
@@ -15695,7 +15701,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>2</v>
       </c>
@@ -15755,7 +15761,7 @@
       <c r="U84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V84" s="46" t="s">
+      <c r="V84" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W84" s="8" t="s">
@@ -15838,7 +15844,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>3</v>
       </c>
@@ -15896,7 +15902,7 @@
       <c r="U85" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="V85" s="46" t="s">
+      <c r="V85" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W85" s="8" t="s">
@@ -15979,7 +15985,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>4</v>
       </c>
@@ -16039,7 +16045,7 @@
       <c r="U86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V86" s="46" t="s">
+      <c r="V86" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W86" s="8" t="s">
@@ -16122,7 +16128,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>5</v>
       </c>
@@ -16180,7 +16186,7 @@
       <c r="U87" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V87" s="46" t="s">
+      <c r="V87" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W87" s="8" t="s">
@@ -16319,7 +16325,7 @@
       <c r="U88" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="V88" s="46" t="s">
+      <c r="V88" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W88" s="8" t="s">
@@ -16402,7 +16408,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>7</v>
       </c>
@@ -16460,7 +16466,7 @@
       <c r="U89" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="V89" s="46" t="s">
+      <c r="V89" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W89" s="8" t="s">
@@ -16543,7 +16549,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>8</v>
       </c>
@@ -16601,7 +16607,7 @@
       <c r="U90" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V90" s="46" t="s">
+      <c r="V90" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W90" s="8" t="s">
@@ -16686,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>9</v>
       </c>
@@ -16744,7 +16750,7 @@
       <c r="U91" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="V91" s="46" t="s">
+      <c r="V91" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W91" s="8" t="s">
@@ -16827,7 +16833,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>10</v>
       </c>
@@ -16885,7 +16891,7 @@
       <c r="U92" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V92" s="46" t="s">
+      <c r="V92" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W92" s="8" t="s">
@@ -16970,7 +16976,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>11</v>
       </c>
@@ -17028,7 +17034,7 @@
       <c r="U93" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="V93" s="46" t="s">
+      <c r="V93" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W93" s="8" t="s">
@@ -17111,7 +17117,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>12</v>
       </c>
@@ -17169,7 +17175,7 @@
       <c r="U94" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V94" s="46" t="s">
+      <c r="V94" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W94" s="8" t="s">
@@ -17248,7 +17254,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>13</v>
       </c>
@@ -17306,7 +17312,7 @@
       <c r="U95" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="V95" s="46" t="s">
+      <c r="V95" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W95" s="8" t="s">
@@ -17449,7 +17455,7 @@
       <c r="U96" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V96" s="46" t="s">
+      <c r="V96" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W96" s="8" t="s">
@@ -17534,7 +17540,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>15</v>
       </c>
@@ -17592,7 +17598,7 @@
       <c r="U97" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V97" s="8" t="s">
+      <c r="V97" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W97" s="8" t="s">
@@ -17731,7 +17737,7 @@
       <c r="U98" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V98" s="46" t="s">
+      <c r="V98" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W98" s="8" t="s">
@@ -17844,7 +17850,7 @@
       <c r="U99" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V99" s="46"/>
+      <c r="V99" s="52"/>
       <c r="W99" s="8" t="s">
         <v>524</v>
       </c>
@@ -17959,7 +17965,7 @@
       <c r="U100" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V100" s="46" t="s">
+      <c r="V100" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W100" s="8" t="s">
@@ -18078,7 +18084,7 @@
       <c r="U101" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="V101" s="46" t="s">
+      <c r="V101" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W101" s="8" t="s">
@@ -18219,7 +18225,7 @@
       <c r="U102" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V102" s="46" t="s">
+      <c r="V102" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W102" s="8" t="s">
@@ -18336,7 +18342,7 @@
       <c r="U103" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="V103" s="8" t="s">
+      <c r="V103" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W103" s="8" t="s">
@@ -18475,7 +18481,7 @@
       <c r="U104" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="V104" s="8" t="s">
+      <c r="V104" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W104" s="8" t="s">
@@ -18600,7 +18606,7 @@
       <c r="U105" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V105" s="46" t="s">
+      <c r="V105" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W105" s="8" t="s">
@@ -18705,7 +18711,7 @@
       <c r="U106" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V106" s="46"/>
+      <c r="V106" s="52"/>
       <c r="W106" s="8" t="s">
         <v>42</v>
       </c>
@@ -18756,7 +18762,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>25</v>
       </c>
@@ -18814,7 +18820,7 @@
       <c r="U107" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V107" s="46" t="s">
+      <c r="V107" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W107" s="8" t="s">
@@ -18955,7 +18961,7 @@
       <c r="U108" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V108" s="46" t="s">
+      <c r="V108" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W108" s="8" t="s">
@@ -19038,7 +19044,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>27</v>
       </c>
@@ -19096,7 +19102,7 @@
       <c r="U109" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V109" s="46" t="s">
+      <c r="V109" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W109" s="8" t="s">
@@ -19239,7 +19245,7 @@
       <c r="U110" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V110" s="46" t="s">
+      <c r="V110" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W110" s="8" t="s">
@@ -19324,7 +19330,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>29</v>
       </c>
@@ -19382,7 +19388,7 @@
       <c r="U111" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="V111" s="46" t="s">
+      <c r="V111" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W111" s="8" t="s">
@@ -19465,7 +19471,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>30</v>
       </c>
@@ -19523,7 +19529,7 @@
       <c r="U112" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V112" s="46" t="s">
+      <c r="V112" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W112" s="8" t="s">
@@ -19608,7 +19614,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>31</v>
       </c>
@@ -19666,7 +19672,7 @@
       <c r="U113" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V113" s="46" t="s">
+      <c r="V113" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W113" s="8" t="s">
@@ -19803,7 +19809,7 @@
       <c r="U114" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V114" s="46"/>
+      <c r="V114" s="52"/>
       <c r="W114" s="8" t="s">
         <v>37</v>
       </c>
@@ -19910,7 +19916,7 @@
       <c r="U115" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V115" s="46" t="s">
+      <c r="V115" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W115" s="8" t="s">
@@ -19965,7 +19971,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>34</v>
       </c>
@@ -20023,7 +20029,7 @@
       <c r="U116" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V116" s="46" t="s">
+      <c r="V116" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W116" s="8" t="s">
@@ -20106,7 +20112,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>35</v>
       </c>
@@ -20164,7 +20170,7 @@
       <c r="U117" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="V117" s="8" t="s">
+      <c r="V117" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W117" s="8" t="s">
@@ -20307,7 +20313,7 @@
       <c r="U118" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V118" s="46" t="s">
+      <c r="V118" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W118" s="8" t="s">
@@ -20392,7 +20398,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>37</v>
       </c>
@@ -20450,7 +20456,7 @@
       <c r="U119" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="V119" s="8" t="s">
+      <c r="V119" s="52" t="s">
         <v>58</v>
       </c>
       <c r="W119" s="8" t="s">
@@ -20533,7 +20539,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>38</v>
       </c>
@@ -20591,7 +20597,7 @@
       <c r="U120" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="V120" s="46" t="s">
+      <c r="V120" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W120" s="8" t="s">
@@ -20732,7 +20738,7 @@
       <c r="U121" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V121" s="46" t="s">
+      <c r="V121" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W121" s="8" t="s">
@@ -20869,7 +20875,7 @@
       <c r="U122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V122" s="46"/>
+      <c r="V122" s="52"/>
       <c r="W122" s="8" t="s">
         <v>37</v>
       </c>
@@ -20914,7 +20920,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>41</v>
       </c>
@@ -20972,7 +20978,7 @@
       <c r="U123" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="V123" s="46" t="s">
+      <c r="V123" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W123" s="8" t="s">
@@ -21111,7 +21117,7 @@
       <c r="U124" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V124" s="46"/>
+      <c r="V124" s="52"/>
       <c r="W124" s="8" t="s">
         <v>37</v>
       </c>
@@ -21224,7 +21230,7 @@
       <c r="U125" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V125" s="46" t="s">
+      <c r="V125" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W125" s="8" t="s">
@@ -21283,7 +21289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>44</v>
       </c>
@@ -21341,7 +21347,7 @@
       <c r="U126" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V126" s="46" t="s">
+      <c r="V126" s="52" t="s">
         <v>41</v>
       </c>
       <c r="W126" s="8" t="s">
@@ -21477,7 +21483,7 @@
       <c r="U127" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V127" s="46" t="s">
+      <c r="V127" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W127" s="8" t="s">
@@ -21591,7 +21597,7 @@
       <c r="U128" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V128" s="46" t="s">
+      <c r="V128" s="52" t="s">
         <v>37</v>
       </c>
       <c r="W128" s="8" t="s">
@@ -21669,7 +21675,7 @@
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
       <c r="U129" s="44"/>
-      <c r="V129" s="44"/>
+      <c r="V129" s="53"/>
       <c r="W129" s="44"/>
       <c r="X129" s="44"/>
       <c r="Y129" s="44"/>
@@ -21713,7 +21719,7 @@
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
       <c r="U130" s="44"/>
-      <c r="V130" s="44"/>
+      <c r="V130" s="53"/>
       <c r="W130" s="44"/>
       <c r="X130" s="44"/>
       <c r="Y130" s="44"/>
@@ -21757,7 +21763,7 @@
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
       <c r="U131" s="44"/>
-      <c r="V131" s="44"/>
+      <c r="V131" s="53"/>
       <c r="W131" s="44"/>
       <c r="X131" s="44"/>
       <c r="Y131" s="44"/>
@@ -21801,7 +21807,7 @@
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
       <c r="U132" s="44"/>
-      <c r="V132" s="44"/>
+      <c r="V132" s="53"/>
       <c r="W132" s="44"/>
       <c r="X132" s="44"/>
       <c r="Y132" s="44"/>
@@ -21845,7 +21851,7 @@
       <c r="S133" s="44"/>
       <c r="T133" s="44"/>
       <c r="U133" s="44"/>
-      <c r="V133" s="44"/>
+      <c r="V133" s="53"/>
       <c r="W133" s="44"/>
       <c r="X133" s="44"/>
       <c r="Y133" s="44"/>
@@ -21889,7 +21895,7 @@
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
       <c r="U134" s="44"/>
-      <c r="V134" s="44"/>
+      <c r="V134" s="53"/>
       <c r="W134" s="44"/>
       <c r="X134" s="44"/>
       <c r="Y134" s="44"/>
@@ -21933,7 +21939,7 @@
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
       <c r="U135" s="44"/>
-      <c r="V135" s="44"/>
+      <c r="V135" s="53"/>
       <c r="W135" s="44"/>
       <c r="X135" s="44"/>
       <c r="Y135" s="44"/>
@@ -21977,7 +21983,7 @@
       <c r="S136" s="44"/>
       <c r="T136" s="44"/>
       <c r="U136" s="44"/>
-      <c r="V136" s="44"/>
+      <c r="V136" s="53"/>
       <c r="W136" s="44"/>
       <c r="X136" s="44"/>
       <c r="Y136" s="44"/>
@@ -22021,7 +22027,7 @@
       <c r="S137" s="44"/>
       <c r="T137" s="44"/>
       <c r="U137" s="44"/>
-      <c r="V137" s="44"/>
+      <c r="V137" s="53"/>
       <c r="W137" s="44"/>
       <c r="X137" s="44"/>
       <c r="Y137" s="44"/>
@@ -22065,7 +22071,7 @@
       <c r="S138" s="44"/>
       <c r="T138" s="44"/>
       <c r="U138" s="44"/>
-      <c r="V138" s="44"/>
+      <c r="V138" s="53"/>
       <c r="W138" s="44"/>
       <c r="X138" s="44"/>
       <c r="Y138" s="44"/>
@@ -22108,7 +22114,7 @@
       <c r="S139" s="44"/>
       <c r="T139" s="44"/>
       <c r="U139" s="44"/>
-      <c r="V139" s="44"/>
+      <c r="V139" s="53"/>
       <c r="W139" s="44"/>
       <c r="X139" s="44"/>
       <c r="Y139" s="44"/>
@@ -22136,7 +22142,7 @@
       <c r="S140" s="44"/>
       <c r="T140" s="44"/>
       <c r="U140" s="44"/>
-      <c r="V140" s="44"/>
+      <c r="V140" s="53"/>
       <c r="W140" s="44"/>
       <c r="X140" s="44"/>
       <c r="Y140" s="44"/>
@@ -22164,7 +22170,7 @@
       <c r="S141" s="44"/>
       <c r="T141" s="44"/>
       <c r="U141" s="44"/>
-      <c r="V141" s="44"/>
+      <c r="V141" s="53"/>
       <c r="W141" s="44"/>
       <c r="X141" s="44"/>
       <c r="Y141" s="44"/>
@@ -22202,7 +22208,7 @@
       <c r="S142" s="44"/>
       <c r="T142" s="44"/>
       <c r="U142" s="44"/>
-      <c r="V142" s="44"/>
+      <c r="V142" s="53"/>
       <c r="W142" s="44"/>
       <c r="X142" s="44"/>
       <c r="Y142" s="44"/>
@@ -22240,7 +22246,7 @@
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
       <c r="U143" s="44"/>
-      <c r="V143" s="44"/>
+      <c r="V143" s="53"/>
       <c r="W143" s="44"/>
       <c r="X143" s="44"/>
       <c r="Y143" s="44"/>
@@ -22278,7 +22284,7 @@
       <c r="S144" s="44"/>
       <c r="T144" s="44"/>
       <c r="U144" s="44"/>
-      <c r="V144" s="44"/>
+      <c r="V144" s="53"/>
       <c r="W144" s="44"/>
       <c r="X144" s="44"/>
       <c r="Y144" s="44"/>
@@ -22316,7 +22322,7 @@
       <c r="S145" s="44"/>
       <c r="T145" s="44"/>
       <c r="U145" s="44"/>
-      <c r="V145" s="44"/>
+      <c r="V145" s="53"/>
       <c r="W145" s="44"/>
       <c r="X145" s="44"/>
       <c r="Y145" s="44"/>
@@ -22354,7 +22360,7 @@
       <c r="S146" s="44"/>
       <c r="T146" s="44"/>
       <c r="U146" s="44"/>
-      <c r="V146" s="44"/>
+      <c r="V146" s="53"/>
       <c r="W146" s="44"/>
       <c r="X146" s="44"/>
       <c r="Y146" s="44"/>
@@ -22392,7 +22398,7 @@
       <c r="S147" s="44"/>
       <c r="T147" s="44"/>
       <c r="U147" s="44"/>
-      <c r="V147" s="44"/>
+      <c r="V147" s="53"/>
       <c r="W147" s="44"/>
       <c r="X147" s="44"/>
       <c r="Y147" s="44"/>
@@ -22430,7 +22436,7 @@
       <c r="S148" s="44"/>
       <c r="T148" s="44"/>
       <c r="U148" s="44"/>
-      <c r="V148" s="44"/>
+      <c r="V148" s="53"/>
       <c r="W148" s="44"/>
       <c r="X148" s="44"/>
       <c r="Y148" s="44"/>
@@ -22468,7 +22474,7 @@
       <c r="S149" s="44"/>
       <c r="T149" s="44"/>
       <c r="U149" s="44"/>
-      <c r="V149" s="44"/>
+      <c r="V149" s="53"/>
       <c r="W149" s="44"/>
       <c r="X149" s="44"/>
       <c r="Y149" s="44"/>
@@ -22506,7 +22512,7 @@
       <c r="S150" s="44"/>
       <c r="T150" s="44"/>
       <c r="U150" s="44"/>
-      <c r="V150" s="44"/>
+      <c r="V150" s="53"/>
       <c r="W150" s="44"/>
       <c r="X150" s="44"/>
       <c r="Y150" s="44"/>
@@ -22544,7 +22550,7 @@
       <c r="S151" s="44"/>
       <c r="T151" s="44"/>
       <c r="U151" s="44"/>
-      <c r="V151" s="44"/>
+      <c r="V151" s="53"/>
       <c r="W151" s="44"/>
       <c r="X151" s="44"/>
       <c r="Y151" s="44"/>
@@ -22582,7 +22588,7 @@
       <c r="S152" s="44"/>
       <c r="T152" s="44"/>
       <c r="U152" s="44"/>
-      <c r="V152" s="44"/>
+      <c r="V152" s="53"/>
       <c r="W152" s="44"/>
       <c r="X152" s="44"/>
       <c r="Y152" s="44"/>
@@ -22604,10 +22610,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-    <filterColumn colId="14">
+    <filterColumn colId="32">
       <filters>
-        <filter val="PMS"/>
-        <filter val="RRMS"/>
+        <filter val="Include"/>
       </filters>
     </filterColumn>
   </autoFilter>
